--- a/demo/导表/土建工程量_test.xlsx
+++ b/demo/导表/土建工程量_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\华润工作资料\自动化报告\导表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOdoo12_community\myaddons\auto_word\demo\导表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E342C-D9BD-4A0D-9089-6829943423A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC8DF5A-B25B-4B32-9151-720162FB49FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1770" windowWidth="27885" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,16 @@
     <definedName name="_Toc294106962" localSheetId="0">成果输出!#REF!</definedName>
     <definedName name="OLE_LINK5" localSheetId="0">成果输出!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4495,25 +4504,25 @@
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="11.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.69921875" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="147" t="s">
         <v>364</v>
       </c>
@@ -4525,7 +4534,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="123" t="s">
         <v>312</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="180" t="s">
         <v>319</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="180" t="s">
         <v>320</v>
       </c>
@@ -4606,7 +4615,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="180" t="s">
         <v>321</v>
       </c>
@@ -4635,7 +4644,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="180" t="s">
         <v>322</v>
       </c>
@@ -4664,7 +4673,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="180" t="s">
         <v>323</v>
       </c>
@@ -4693,7 +4702,7 @@
         <v>5033.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="182" t="s">
         <v>324</v>
       </c>
@@ -4722,9 +4731,9 @@
         <v>3734.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="147" t="s">
         <v>366</v>
       </c>
@@ -4736,7 +4745,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123" t="s">
         <v>327</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="180">
         <v>1</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="180">
         <v>2</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="180">
         <v>3</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="182">
         <v>4</v>
       </c>
@@ -4966,9 +4975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>367</v>
       </c>
@@ -4976,7 +4985,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="123" t="s">
         <v>344</v>
       </c>
@@ -4995,7 +5004,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="180"/>
       <c r="B21" s="177"/>
       <c r="C21" s="177" t="s">
@@ -5012,7 +5021,7 @@
       </c>
       <c r="G21" s="181"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>348</v>
       </c>
@@ -5023,7 +5032,7 @@
       <c r="F22" s="245"/>
       <c r="G22" s="246"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="180" t="s">
         <v>349</v>
       </c>
@@ -5046,7 +5055,7 @@
       </c>
       <c r="G23" s="181"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="180" t="s">
         <v>350</v>
       </c>
@@ -5057,7 +5066,7 @@
       <c r="F24" s="177"/>
       <c r="G24" s="181"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="180" t="s">
         <v>351</v>
       </c>
@@ -5082,7 +5091,7 @@
       </c>
       <c r="G25" s="181"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="180" t="s">
         <v>353</v>
       </c>
@@ -5107,7 +5116,7 @@
       </c>
       <c r="G26" s="181"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="244" t="s">
         <v>354</v>
       </c>
@@ -5118,7 +5127,7 @@
       <c r="F27" s="245"/>
       <c r="G27" s="246"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="180" t="s">
         <v>355</v>
       </c>
@@ -5143,7 +5152,7 @@
       </c>
       <c r="G28" s="181"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="180" t="s">
         <v>357</v>
       </c>
@@ -5166,7 +5175,7 @@
       </c>
       <c r="G29" s="181"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="244" t="s">
         <v>358</v>
       </c>
@@ -5177,7 +5186,7 @@
       <c r="F30" s="245"/>
       <c r="G30" s="246"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="180" t="s">
         <v>359</v>
       </c>
@@ -5200,7 +5209,7 @@
       </c>
       <c r="G31" s="181"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="182" t="s">
         <v>360</v>
       </c>
@@ -5223,9 +5232,9 @@
       </c>
       <c r="G32" s="183"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>386</v>
       </c>
@@ -5237,7 +5246,7 @@
       <c r="E35" s="195"/>
       <c r="F35" s="195"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="203" t="s">
         <v>12</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -5279,7 +5288,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -5299,7 +5308,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>3</v>
       </c>
@@ -5319,7 +5328,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>4</v>
       </c>
@@ -5339,7 +5348,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>5</v>
       </c>
@@ -5359,7 +5368,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>6</v>
       </c>
@@ -5379,7 +5388,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>7</v>
       </c>
@@ -5399,7 +5408,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>8</v>
       </c>
@@ -5419,7 +5428,7 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>9</v>
       </c>
@@ -5439,7 +5448,7 @@
       </c>
       <c r="F45" s="200"/>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="74">
         <v>10</v>
       </c>
@@ -5459,7 +5468,7 @@
       </c>
       <c r="F46" s="201"/>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>370</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="123" t="s">
         <v>85</v>
       </c>
@@ -5489,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="180">
         <v>1</v>
       </c>
@@ -5509,7 +5518,7 @@
       </c>
       <c r="F51" s="181"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="180">
         <v>2</v>
       </c>
@@ -5529,7 +5538,7 @@
       </c>
       <c r="F52" s="181"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="180">
         <v>3</v>
       </c>
@@ -5549,7 +5558,7 @@
       </c>
       <c r="F53" s="181"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="180">
         <v>4</v>
       </c>
@@ -5569,7 +5578,7 @@
       </c>
       <c r="F54" s="181"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="180">
         <v>5</v>
       </c>
@@ -5589,7 +5598,7 @@
       </c>
       <c r="F55" s="181"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="180">
         <v>6</v>
       </c>
@@ -5609,7 +5618,7 @@
       </c>
       <c r="F56" s="181"/>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="182">
         <v>7</v>
       </c>
@@ -5629,7 +5638,7 @@
       </c>
       <c r="F57" s="183"/>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>373</v>
       </c>
@@ -5637,7 +5646,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
         <v>12</v>
       </c>
@@ -5655,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A62" s="208">
         <v>1</v>
       </c>
@@ -5671,7 +5680,7 @@
       </c>
       <c r="E62" s="95"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A63" s="208">
         <v>2</v>
       </c>
@@ -5687,7 +5696,7 @@
       </c>
       <c r="E63" s="95"/>
     </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A64" s="208">
         <v>3</v>
       </c>
@@ -5705,7 +5714,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A65" s="208">
         <v>4</v>
       </c>
@@ -5721,7 +5730,7 @@
       </c>
       <c r="E65" s="96"/>
     </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A66" s="208">
         <v>5</v>
       </c>
@@ -5737,7 +5746,7 @@
       </c>
       <c r="E66" s="95"/>
     </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A67" s="208">
         <v>6</v>
       </c>
@@ -5753,7 +5762,7 @@
       </c>
       <c r="E67" s="95"/>
     </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A68" s="208">
         <v>7</v>
       </c>
@@ -5769,7 +5778,7 @@
       </c>
       <c r="E68" s="95"/>
     </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A69" s="208">
         <v>8</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A70" s="208">
         <v>9</v>
       </c>
@@ -5805,7 +5814,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A71" s="208">
         <v>10</v>
       </c>
@@ -5821,7 +5830,7 @@
       </c>
       <c r="E71" s="95"/>
     </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A72" s="208">
         <v>11</v>
       </c>
@@ -5837,7 +5846,7 @@
       </c>
       <c r="E72" s="95"/>
     </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A73" s="208">
         <v>12</v>
       </c>
@@ -5853,7 +5862,7 @@
       </c>
       <c r="E73" s="95"/>
     </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A74" s="208">
         <v>13</v>
       </c>
@@ -5869,7 +5878,7 @@
       </c>
       <c r="E74" s="95"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="208">
         <v>14</v>
       </c>
@@ -5883,7 +5892,7 @@
       </c>
       <c r="E75" s="95"/>
     </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A76" s="208">
         <v>15</v>
       </c>
@@ -5899,7 +5908,7 @@
       </c>
       <c r="E76" s="95"/>
     </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A77" s="208">
         <v>16</v>
       </c>
@@ -5915,7 +5924,7 @@
       </c>
       <c r="E77" s="95"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="208">
         <v>17</v>
       </c>
@@ -5931,7 +5940,7 @@
       </c>
       <c r="E78" s="95"/>
     </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A79" s="208">
         <v>18</v>
       </c>
@@ -5947,7 +5956,7 @@
       </c>
       <c r="E79" s="95"/>
     </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A80" s="208">
         <v>19</v>
       </c>
@@ -5963,7 +5972,7 @@
       </c>
       <c r="E80" s="95"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="208">
         <v>20</v>
       </c>
@@ -5979,7 +5988,7 @@
       </c>
       <c r="E81" s="95"/>
     </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A82" s="208">
         <v>21</v>
       </c>
@@ -5995,7 +6004,7 @@
       </c>
       <c r="E82" s="95"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="208">
         <v>22</v>
       </c>
@@ -6011,7 +6020,7 @@
       </c>
       <c r="E83" s="95"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="208">
         <v>23</v>
       </c>
@@ -6027,7 +6036,7 @@
       </c>
       <c r="E84" s="95"/>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="210">
         <v>24</v>
       </c>
@@ -6043,7 +6052,7 @@
       </c>
       <c r="E85" s="101"/>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>374</v>
       </c>
@@ -6051,7 +6060,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="123" t="s">
         <v>95</v>
       </c>
@@ -6073,7 +6082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="180" t="s">
         <v>127</v>
       </c>
@@ -6093,7 +6102,7 @@
       </c>
       <c r="F90" s="189"/>
     </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A91" s="180">
         <v>1</v>
       </c>
@@ -6113,7 +6122,7 @@
       </c>
       <c r="F91" s="186"/>
     </row>
-    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A92" s="180">
         <v>2</v>
       </c>
@@ -6133,7 +6142,7 @@
       </c>
       <c r="F92" s="186"/>
     </row>
-    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A93" s="180">
         <v>3</v>
       </c>
@@ -6153,7 +6162,7 @@
       </c>
       <c r="F93" s="186"/>
     </row>
-    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A94" s="180">
         <v>4</v>
       </c>
@@ -6173,7 +6182,7 @@
       </c>
       <c r="F94" s="186"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="180">
         <v>5</v>
       </c>
@@ -6193,7 +6202,7 @@
       </c>
       <c r="F95" s="186"/>
     </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A96" s="180">
         <v>6</v>
       </c>
@@ -6213,7 +6222,7 @@
       </c>
       <c r="F96" s="186"/>
     </row>
-    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A97" s="180">
         <v>7</v>
       </c>
@@ -6233,7 +6242,7 @@
       </c>
       <c r="F97" s="186"/>
     </row>
-    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A98" s="180">
         <v>8</v>
       </c>
@@ -6253,7 +6262,7 @@
       </c>
       <c r="F98" s="186"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="180" t="s">
         <v>128</v>
       </c>
@@ -6273,7 +6282,7 @@
       </c>
       <c r="F99" s="186"/>
     </row>
-    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A100" s="180">
         <v>1</v>
       </c>
@@ -6293,7 +6302,7 @@
       </c>
       <c r="F100" s="186"/>
     </row>
-    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A101" s="180">
         <v>2</v>
       </c>
@@ -6313,7 +6322,7 @@
       </c>
       <c r="F101" s="186"/>
     </row>
-    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A102" s="180">
         <v>3</v>
       </c>
@@ -6333,7 +6342,7 @@
       </c>
       <c r="F102" s="186"/>
     </row>
-    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A103" s="180">
         <v>4</v>
       </c>
@@ -6353,7 +6362,7 @@
       </c>
       <c r="F103" s="186"/>
     </row>
-    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A104" s="180">
         <v>5</v>
       </c>
@@ -6373,7 +6382,7 @@
       </c>
       <c r="F104" s="186"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="180">
         <v>6</v>
       </c>
@@ -6393,7 +6402,7 @@
       </c>
       <c r="F105" s="186"/>
     </row>
-    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A106" s="180">
         <v>7</v>
       </c>
@@ -6413,7 +6422,7 @@
       </c>
       <c r="F106" s="186"/>
     </row>
-    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A107" s="180">
         <v>8</v>
       </c>
@@ -6433,7 +6442,7 @@
       </c>
       <c r="F107" s="186"/>
     </row>
-    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A108" s="180">
         <v>9</v>
       </c>
@@ -6453,7 +6462,7 @@
       </c>
       <c r="F108" s="186"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="180">
         <v>10</v>
       </c>
@@ -6473,7 +6482,7 @@
       </c>
       <c r="F109" s="186"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="180">
         <v>11</v>
       </c>
@@ -6493,7 +6502,7 @@
       </c>
       <c r="F110" s="186"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="180" t="s">
         <v>129</v>
       </c>
@@ -6513,7 +6522,7 @@
       </c>
       <c r="F111" s="186"/>
     </row>
-    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A112" s="180">
         <v>1</v>
       </c>
@@ -6533,7 +6542,7 @@
       </c>
       <c r="F112" s="189"/>
     </row>
-    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A113" s="180">
         <v>2</v>
       </c>
@@ -6553,7 +6562,7 @@
       </c>
       <c r="F113" s="189"/>
     </row>
-    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A114" s="180">
         <v>3</v>
       </c>
@@ -6573,7 +6582,7 @@
       </c>
       <c r="F114" s="189"/>
     </row>
-    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A115" s="180">
         <v>4</v>
       </c>
@@ -6593,7 +6602,7 @@
       </c>
       <c r="F115" s="189"/>
     </row>
-    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A116" s="180">
         <v>5</v>
       </c>
@@ -6613,7 +6622,7 @@
       </c>
       <c r="F116" s="189"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="180">
         <v>6</v>
       </c>
@@ -6633,7 +6642,7 @@
       </c>
       <c r="F117" s="189"/>
     </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A118" s="180">
         <v>7</v>
       </c>
@@ -6653,7 +6662,7 @@
       </c>
       <c r="F118" s="189"/>
     </row>
-    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A119" s="180">
         <v>8</v>
       </c>
@@ -6673,7 +6682,7 @@
       </c>
       <c r="F119" s="189"/>
     </row>
-    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A120" s="180">
         <v>9</v>
       </c>
@@ -6693,7 +6702,7 @@
       </c>
       <c r="F120" s="189"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="180">
         <v>10</v>
       </c>
@@ -6713,7 +6722,7 @@
       </c>
       <c r="F121" s="189"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="180">
         <v>11</v>
       </c>
@@ -6733,7 +6742,7 @@
       </c>
       <c r="F122" s="189"/>
     </row>
-    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A123" s="180">
         <v>12</v>
       </c>
@@ -6753,7 +6762,7 @@
       </c>
       <c r="F123" s="189"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="180" t="s">
         <v>130</v>
       </c>
@@ -6773,7 +6782,7 @@
       </c>
       <c r="F124" s="186"/>
     </row>
-    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A125" s="180">
         <v>1</v>
       </c>
@@ -6793,7 +6802,7 @@
       </c>
       <c r="F125" s="186"/>
     </row>
-    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A126" s="180">
         <v>2</v>
       </c>
@@ -6813,7 +6822,7 @@
       </c>
       <c r="F126" s="186"/>
     </row>
-    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A127" s="180">
         <v>3</v>
       </c>
@@ -6833,7 +6842,7 @@
       </c>
       <c r="F127" s="186"/>
     </row>
-    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A128" s="180">
         <v>4</v>
       </c>
@@ -6853,7 +6862,7 @@
       </c>
       <c r="F128" s="186"/>
     </row>
-    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A129" s="180">
         <v>5</v>
       </c>
@@ -6873,7 +6882,7 @@
       </c>
       <c r="F129" s="186"/>
     </row>
-    <row r="130" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="182">
         <v>6</v>
       </c>
@@ -6893,7 +6902,7 @@
       </c>
       <c r="F130" s="192"/>
     </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>375</v>
       </c>
@@ -6901,7 +6910,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="123" t="s">
         <v>85</v>
       </c>
@@ -6920,7 +6929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="180">
         <v>1</v>
       </c>
@@ -6937,7 +6946,7 @@
       </c>
       <c r="E135" s="181"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="180">
         <v>2</v>
       </c>
@@ -6954,7 +6963,7 @@
       </c>
       <c r="E136" s="181"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="180">
         <v>3</v>
       </c>
@@ -6971,7 +6980,7 @@
       </c>
       <c r="E137" s="181"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="180">
         <v>4</v>
       </c>
@@ -6988,7 +6997,7 @@
       </c>
       <c r="E138" s="181"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="180">
         <v>5</v>
       </c>
@@ -7005,7 +7014,7 @@
       </c>
       <c r="E139" s="181"/>
     </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="182">
         <v>6</v>
       </c>
@@ -7022,7 +7031,7 @@
       </c>
       <c r="E140" s="183"/>
     </row>
-    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>377</v>
       </c>
@@ -7030,7 +7039,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="216" t="s">
         <v>85</v>
       </c>
@@ -7050,7 +7059,7 @@
         <v>弃土（m3）</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="220">
         <v>1</v>
       </c>
@@ -7070,7 +7079,7 @@
         <v>10419.80810276195</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="220">
         <v>2</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>30763.782499999998</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="220">
         <v>3</v>
       </c>
@@ -7110,7 +7119,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="220">
         <v>4</v>
       </c>
@@ -7130,7 +7139,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="220">
         <v>5</v>
       </c>
@@ -7150,7 +7159,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="223">
         <v>6</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>253183.59060276195</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>379</v>
       </c>
@@ -7178,7 +7187,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="227" t="s">
         <v>12</v>
       </c>
@@ -7201,7 +7210,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="230">
         <v>1</v>
       </c>
@@ -7230,7 +7239,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>383</v>
       </c>
@@ -7238,7 +7247,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="123" t="s">
         <v>12</v>
       </c>
@@ -7253,7 +7262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="180">
         <v>1</v>
       </c>
@@ -7266,7 +7275,7 @@
       </c>
       <c r="D160" s="181"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="180">
         <v>2</v>
       </c>
@@ -7279,7 +7288,7 @@
       </c>
       <c r="D161" s="181"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="180">
         <v>3</v>
       </c>
@@ -7294,7 +7303,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="182">
         <v>4</v>
       </c>
@@ -7310,7 +7319,7 @@
         <v>18.993855370323978</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>384</v>
       </c>
@@ -7318,7 +7327,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="123" t="s">
         <v>85</v>
       </c>
@@ -7333,7 +7342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="180">
         <v>1</v>
       </c>
@@ -7346,7 +7355,7 @@
       </c>
       <c r="D168" s="181"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="180">
         <v>2</v>
       </c>
@@ -7359,7 +7368,7 @@
       </c>
       <c r="D169" s="181"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="180">
         <v>3</v>
       </c>
@@ -7372,7 +7381,7 @@
       </c>
       <c r="D170" s="181"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="180">
         <v>4</v>
       </c>
@@ -7385,7 +7394,7 @@
       </c>
       <c r="D171" s="181"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="180">
         <v>5</v>
       </c>
@@ -7398,7 +7407,7 @@
       </c>
       <c r="D172" s="181"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="180">
         <v>6</v>
       </c>
@@ -7411,7 +7420,7 @@
       </c>
       <c r="D173" s="181"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="180">
         <v>7</v>
       </c>
@@ -7424,7 +7433,7 @@
       </c>
       <c r="D174" s="181"/>
     </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="182">
         <v>8</v>
       </c>
@@ -7440,7 +7449,7 @@
         <v>333.2142380256293</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>385</v>
       </c>
@@ -7451,7 +7460,7 @@
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="123" t="s">
         <v>12</v>
       </c>
@@ -7469,7 +7478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="180">
         <v>1</v>
       </c>
@@ -7485,7 +7494,7 @@
       </c>
       <c r="E180" s="181"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="180">
         <v>2</v>
       </c>
@@ -7501,7 +7510,7 @@
       </c>
       <c r="E181" s="181"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="180">
         <v>3</v>
       </c>
@@ -7517,7 +7526,7 @@
       </c>
       <c r="E182" s="181"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="180">
         <v>4</v>
       </c>
@@ -7533,7 +7542,7 @@
       </c>
       <c r="E183" s="181"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="180">
         <v>5</v>
       </c>
@@ -7549,7 +7558,7 @@
       </c>
       <c r="E184" s="181"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="180">
         <v>6</v>
       </c>
@@ -7565,7 +7574,7 @@
       </c>
       <c r="E185" s="181"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="180">
         <v>7</v>
       </c>
@@ -7581,7 +7590,7 @@
       </c>
       <c r="E186" s="181"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="180">
         <v>8</v>
       </c>
@@ -7597,7 +7606,7 @@
       </c>
       <c r="E187" s="181"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="180">
         <v>9</v>
       </c>
@@ -7613,7 +7622,7 @@
       </c>
       <c r="E188" s="181"/>
     </row>
-    <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="182">
         <v>10</v>
       </c>
@@ -7649,30 +7658,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="8" max="9" width="11.8984375" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" customWidth="1"/>
+    <col min="13" max="13" width="32.3984375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="17" max="17" width="10.69921875" customWidth="1"/>
+    <col min="18" max="18" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -7701,7 +7710,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>7</v>
       </c>
@@ -7731,13 +7740,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="M3" s="142" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>90</v>
       </c>
@@ -7775,7 +7784,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>156</v>
       </c>
@@ -7814,8 +7823,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -7835,7 +7844,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="141">
         <v>15000</v>
       </c>
@@ -7855,7 +7864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -7863,7 +7872,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -7871,7 +7880,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="147" t="s">
         <v>325</v>
       </c>
@@ -7881,7 +7890,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="167" t="s">
         <v>312</v>
       </c>
@@ -7904,7 +7913,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
         <v>319</v>
       </c>
@@ -7927,7 +7936,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="170" t="s">
         <v>320</v>
       </c>
@@ -7950,7 +7959,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="170" t="s">
         <v>321</v>
       </c>
@@ -7973,7 +7982,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
         <v>322</v>
       </c>
@@ -7996,7 +8005,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="170" t="s">
         <v>323</v>
       </c>
@@ -8019,7 +8028,7 @@
         <v>5033.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="171" t="s">
         <v>324</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>3734.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -8050,7 +8059,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -8058,7 +8067,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="147" t="s">
         <v>326</v>
       </c>
@@ -8068,7 +8077,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="161" t="s">
         <v>327</v>
       </c>
@@ -8106,7 +8115,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="165">
         <v>1</v>
       </c>
@@ -8144,7 +8153,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="165">
         <v>2</v>
       </c>
@@ -8182,7 +8191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="165">
         <v>3</v>
       </c>
@@ -8200,7 +8209,7 @@
       <c r="K25" s="153"/>
       <c r="L25" s="154"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="166">
         <v>4</v>
       </c>
@@ -8218,7 +8227,7 @@
       <c r="K26" s="157"/>
       <c r="L26" s="158"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -8226,7 +8235,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -8234,7 +8243,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="160" t="s">
         <v>343</v>
       </c>
@@ -8244,7 +8253,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="159" t="s">
         <v>344</v>
       </c>
@@ -8263,7 +8272,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="159"/>
       <c r="B31" s="159"/>
       <c r="C31" s="159" t="s">
@@ -8280,7 +8289,7 @@
       </c>
       <c r="G31" s="159"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="247" t="s">
         <v>348</v>
       </c>
@@ -8291,7 +8300,7 @@
       <c r="F32" s="248"/>
       <c r="G32" s="249"/>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="159" t="s">
         <v>349</v>
       </c>
@@ -8310,7 +8319,7 @@
       </c>
       <c r="G33" s="159"/>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
         <v>350</v>
       </c>
@@ -8321,7 +8330,7 @@
       <c r="F34" s="159"/>
       <c r="G34" s="159"/>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
         <v>351</v>
       </c>
@@ -8342,7 +8351,7 @@
       </c>
       <c r="G35" s="159"/>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
         <v>353</v>
       </c>
@@ -8363,7 +8372,7 @@
       </c>
       <c r="G36" s="159"/>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="247" t="s">
         <v>354</v>
       </c>
@@ -8374,7 +8383,7 @@
       <c r="F37" s="248"/>
       <c r="G37" s="249"/>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="159" t="s">
         <v>355</v>
       </c>
@@ -8395,7 +8404,7 @@
       </c>
       <c r="G38" s="159"/>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="159" t="s">
         <v>357</v>
       </c>
@@ -8414,7 +8423,7 @@
       </c>
       <c r="G39" s="159"/>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="247" t="s">
         <v>358</v>
       </c>
@@ -8425,7 +8434,7 @@
       <c r="F40" s="248"/>
       <c r="G40" s="249"/>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="159" t="s">
         <v>359</v>
       </c>
@@ -8444,7 +8453,7 @@
       </c>
       <c r="G41" s="159"/>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="159" t="s">
         <v>360</v>
       </c>
@@ -8463,7 +8472,7 @@
       </c>
       <c r="G42" s="159"/>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -8471,13 +8480,13 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -8498,7 +8507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -8518,7 +8527,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2</v>
       </c>
@@ -8538,7 +8547,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>3</v>
       </c>
@@ -8558,7 +8567,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>4</v>
       </c>
@@ -8578,7 +8587,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>5</v>
       </c>
@@ -8598,7 +8607,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>6</v>
       </c>
@@ -8618,7 +8627,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>7</v>
       </c>
@@ -8637,7 +8646,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>8</v>
       </c>
@@ -8656,7 +8665,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>9</v>
       </c>
@@ -8676,7 +8685,7 @@
       </c>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72">
         <v>10</v>
       </c>
@@ -8696,7 +8705,7 @@
       </c>
       <c r="F56" s="73"/>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="74">
         <v>11</v>
       </c>
@@ -8716,14 +8725,14 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>85</v>
       </c>
@@ -8744,7 +8753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>1</v>
       </c>
@@ -8764,7 +8773,7 @@
       </c>
       <c r="F62" s="27"/>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>2</v>
       </c>
@@ -8784,7 +8793,7 @@
       </c>
       <c r="F63" s="27"/>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>3</v>
       </c>
@@ -8804,7 +8813,7 @@
       </c>
       <c r="F64" s="27"/>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>4</v>
       </c>
@@ -8824,7 +8833,7 @@
       </c>
       <c r="F65" s="27"/>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>5</v>
       </c>
@@ -8844,7 +8853,7 @@
       </c>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>6</v>
       </c>
@@ -8864,7 +8873,7 @@
       </c>
       <c r="F67" s="27"/>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28">
         <v>7</v>
       </c>
@@ -8884,14 +8893,14 @@
       </c>
       <c r="F68" s="30"/>
     </row>
-    <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="100" t="s">
         <v>234</v>
       </c>
@@ -8908,7 +8917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="135">
         <v>1</v>
       </c>
@@ -8924,7 +8933,7 @@
       </c>
       <c r="E73" s="95"/>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="135">
         <v>2</v>
       </c>
@@ -8940,7 +8949,7 @@
       </c>
       <c r="E74" s="95"/>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="135">
         <v>3</v>
       </c>
@@ -8958,7 +8967,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="135">
         <v>4</v>
       </c>
@@ -8974,7 +8983,7 @@
       </c>
       <c r="E76" s="96"/>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="135">
         <v>5</v>
       </c>
@@ -8990,7 +8999,7 @@
       </c>
       <c r="E77" s="95"/>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="135">
         <v>6</v>
       </c>
@@ -9006,7 +9015,7 @@
       </c>
       <c r="E78" s="95"/>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="135">
         <v>7</v>
       </c>
@@ -9022,7 +9031,7 @@
       </c>
       <c r="E79" s="95"/>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="135">
         <v>8</v>
       </c>
@@ -9040,7 +9049,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="135">
         <v>9</v>
       </c>
@@ -9058,7 +9067,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="135">
         <v>10</v>
       </c>
@@ -9074,7 +9083,7 @@
       </c>
       <c r="E82" s="95"/>
     </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="135">
         <v>11</v>
       </c>
@@ -9090,7 +9099,7 @@
       </c>
       <c r="E83" s="95"/>
     </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="135">
         <v>12</v>
       </c>
@@ -9106,7 +9115,7 @@
       </c>
       <c r="E84" s="95"/>
     </row>
-    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="135">
         <v>13</v>
       </c>
@@ -9122,7 +9131,7 @@
       </c>
       <c r="E85" s="95"/>
     </row>
-    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="135">
         <v>14</v>
       </c>
@@ -9133,7 +9142,7 @@
       <c r="D86" s="102"/>
       <c r="E86" s="95"/>
     </row>
-    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="135">
         <v>15</v>
       </c>
@@ -9149,7 +9158,7 @@
       </c>
       <c r="E87" s="95"/>
     </row>
-    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="135">
         <v>16</v>
       </c>
@@ -9165,7 +9174,7 @@
       </c>
       <c r="E88" s="95"/>
     </row>
-    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="135">
         <v>17</v>
       </c>
@@ -9181,7 +9190,7 @@
       </c>
       <c r="E89" s="95"/>
     </row>
-    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="135">
         <v>18</v>
       </c>
@@ -9197,7 +9206,7 @@
       </c>
       <c r="E90" s="95"/>
     </row>
-    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="135">
         <v>19</v>
       </c>
@@ -9213,7 +9222,7 @@
       </c>
       <c r="E91" s="95"/>
     </row>
-    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="135">
         <v>20</v>
       </c>
@@ -9229,7 +9238,7 @@
       </c>
       <c r="E92" s="95"/>
     </row>
-    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="135">
         <v>21</v>
       </c>
@@ -9245,7 +9254,7 @@
       </c>
       <c r="E93" s="95"/>
     </row>
-    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="135">
         <v>22</v>
       </c>
@@ -9261,7 +9270,7 @@
       </c>
       <c r="E94" s="95"/>
     </row>
-    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="135">
         <v>23</v>
       </c>
@@ -9277,7 +9286,7 @@
       </c>
       <c r="E95" s="95"/>
     </row>
-    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="136">
         <v>24</v>
       </c>
@@ -9293,9 +9302,9 @@
       </c>
       <c r="E96" s="101"/>
     </row>
-    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
         <v>94</v>
       </c>
@@ -9304,7 +9313,7 @@
         <v>陡坡低山</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>95</v>
       </c>
@@ -9324,7 +9333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
         <v>127</v>
       </c>
@@ -9341,7 +9350,7 @@
       </c>
       <c r="F101" s="42"/>
     </row>
-    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33">
         <v>1</v>
       </c>
@@ -9361,7 +9370,7 @@
       </c>
       <c r="F102" s="37"/>
     </row>
-    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33">
         <v>2</v>
       </c>
@@ -9381,7 +9390,7 @@
       </c>
       <c r="F103" s="37"/>
     </row>
-    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="33">
         <v>3</v>
       </c>
@@ -9401,7 +9410,7 @@
       </c>
       <c r="F104" s="37"/>
     </row>
-    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33">
         <v>4</v>
       </c>
@@ -9421,7 +9430,7 @@
       </c>
       <c r="F105" s="37"/>
     </row>
-    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33">
         <v>5</v>
       </c>
@@ -9441,7 +9450,7 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33">
         <v>6</v>
       </c>
@@ -9461,7 +9470,7 @@
       </c>
       <c r="F107" s="37"/>
     </row>
-    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="33">
         <v>7</v>
       </c>
@@ -9481,7 +9490,7 @@
       </c>
       <c r="F108" s="37"/>
     </row>
-    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="33">
         <v>8</v>
       </c>
@@ -9501,7 +9510,7 @@
       </c>
       <c r="F109" s="37"/>
     </row>
-    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
         <v>128</v>
       </c>
@@ -9518,7 +9527,7 @@
       </c>
       <c r="F110" s="43"/>
     </row>
-    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="33">
         <v>1</v>
       </c>
@@ -9538,7 +9547,7 @@
       </c>
       <c r="F111" s="37"/>
     </row>
-    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33">
         <v>2</v>
       </c>
@@ -9558,7 +9567,7 @@
       </c>
       <c r="F112" s="37"/>
     </row>
-    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33">
         <v>3</v>
       </c>
@@ -9578,7 +9587,7 @@
       </c>
       <c r="F113" s="37"/>
     </row>
-    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33">
         <v>4</v>
       </c>
@@ -9598,7 +9607,7 @@
       </c>
       <c r="F114" s="37"/>
     </row>
-    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33">
         <v>5</v>
       </c>
@@ -9618,7 +9627,7 @@
       </c>
       <c r="F115" s="37"/>
     </row>
-    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33">
         <v>6</v>
       </c>
@@ -9638,7 +9647,7 @@
       </c>
       <c r="F116" s="37"/>
     </row>
-    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33">
         <v>7</v>
       </c>
@@ -9658,7 +9667,7 @@
       </c>
       <c r="F117" s="37"/>
     </row>
-    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33">
         <v>8</v>
       </c>
@@ -9678,7 +9687,7 @@
       </c>
       <c r="F118" s="37"/>
     </row>
-    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33">
         <v>9</v>
       </c>
@@ -9698,7 +9707,7 @@
       </c>
       <c r="F119" s="37"/>
     </row>
-    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33">
         <v>10</v>
       </c>
@@ -9718,7 +9727,7 @@
       </c>
       <c r="F120" s="37"/>
     </row>
-    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33">
         <v>11</v>
       </c>
@@ -9738,7 +9747,7 @@
       </c>
       <c r="F121" s="37"/>
     </row>
-    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="39" t="s">
         <v>129</v>
       </c>
@@ -9755,7 +9764,7 @@
       </c>
       <c r="F122" s="43"/>
     </row>
-    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33">
         <v>1</v>
       </c>
@@ -9775,7 +9784,7 @@
       </c>
       <c r="F123" s="36"/>
     </row>
-    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="33">
         <v>2</v>
       </c>
@@ -9795,7 +9804,7 @@
       </c>
       <c r="F124" s="36"/>
     </row>
-    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33">
         <v>3</v>
       </c>
@@ -9815,7 +9824,7 @@
       </c>
       <c r="F125" s="36"/>
     </row>
-    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>4</v>
       </c>
@@ -9835,7 +9844,7 @@
       </c>
       <c r="F126" s="36"/>
     </row>
-    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="33">
         <v>5</v>
       </c>
@@ -9855,7 +9864,7 @@
       </c>
       <c r="F127" s="36"/>
     </row>
-    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>6</v>
       </c>
@@ -9875,7 +9884,7 @@
       </c>
       <c r="F128" s="36"/>
     </row>
-    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33">
         <v>7</v>
       </c>
@@ -9895,7 +9904,7 @@
       </c>
       <c r="F129" s="36"/>
     </row>
-    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33">
         <v>8</v>
       </c>
@@ -9915,7 +9924,7 @@
       </c>
       <c r="F130" s="36"/>
     </row>
-    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33">
         <v>9</v>
       </c>
@@ -9935,7 +9944,7 @@
       </c>
       <c r="F131" s="36"/>
     </row>
-    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>10</v>
       </c>
@@ -9955,7 +9964,7 @@
       </c>
       <c r="F132" s="36"/>
     </row>
-    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33">
         <v>11</v>
       </c>
@@ -9975,7 +9984,7 @@
       </c>
       <c r="F133" s="36"/>
     </row>
-    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>12</v>
       </c>
@@ -9995,7 +10004,7 @@
       </c>
       <c r="F134" s="36"/>
     </row>
-    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>130</v>
       </c>
@@ -10012,7 +10021,7 @@
       </c>
       <c r="F135" s="37"/>
     </row>
-    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33">
         <v>1</v>
       </c>
@@ -10027,12 +10036,12 @@
         <v>1800</v>
       </c>
       <c r="E136" s="80">
-        <f>D136*$E$135</f>
+        <f t="shared" ref="E136:E141" si="5">D136*$E$135</f>
         <v>27000</v>
       </c>
       <c r="F136" s="37"/>
     </row>
-    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>2</v>
       </c>
@@ -10047,12 +10056,12 @@
         <v>4320</v>
       </c>
       <c r="E137" s="80">
-        <f t="shared" ref="E137:E141" si="5">D137*$E$135</f>
+        <f t="shared" si="5"/>
         <v>64800</v>
       </c>
       <c r="F137" s="37"/>
     </row>
-    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>3</v>
       </c>
@@ -10072,7 +10081,7 @@
       </c>
       <c r="F138" s="37"/>
     </row>
-    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>4</v>
       </c>
@@ -10092,7 +10101,7 @@
       </c>
       <c r="F139" s="37"/>
     </row>
-    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>5</v>
       </c>
@@ -10112,7 +10121,7 @@
       </c>
       <c r="F140" s="37"/>
     </row>
-    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>6</v>
       </c>
@@ -10132,13 +10141,13 @@
       </c>
       <c r="F141" s="37"/>
     </row>
-    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="105" t="s">
         <v>85</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -10174,7 +10183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -10193,7 +10202,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -10212,7 +10221,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -10231,7 +10240,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -10248,7 +10257,7 @@
       </c>
       <c r="E150" s="27"/>
     </row>
-    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="106">
         <v>6</v>
       </c>
@@ -10265,14 +10274,14 @@
       </c>
       <c r="E151" s="30"/>
     </row>
-    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="110" t="s">
         <v>85</v>
       </c>
@@ -10289,7 +10298,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="114">
         <v>1</v>
       </c>
@@ -10305,11 +10314,11 @@
         <v>14078.359558079368</v>
       </c>
       <c r="E156" s="116">
-        <f>C156-D156</f>
+        <f t="shared" ref="E156:E161" si="6">C156-D156</f>
         <v>10419.80810276195</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="114">
         <v>2</v>
       </c>
@@ -10325,11 +10334,11 @@
         <v>6152.7564999999995</v>
       </c>
       <c r="E157" s="116">
-        <f t="shared" ref="E157:E161" si="6">C157-D157</f>
+        <f t="shared" si="6"/>
         <v>30763.782499999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="114">
         <v>3</v>
       </c>
@@ -10349,7 +10358,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="114">
         <v>4</v>
       </c>
@@ -10369,7 +10378,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="114">
         <v>5</v>
       </c>
@@ -10389,7 +10398,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="119">
         <v>6</v>
       </c>
@@ -10409,14 +10418,14 @@
         <v>253183.59060276195</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="131" t="s">
         <v>277</v>
       </c>
@@ -10439,7 +10448,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="132">
         <v>1</v>
       </c>
@@ -10468,14 +10477,14 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="123" t="s">
         <v>264</v>
       </c>
@@ -10489,7 +10498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25">
         <v>1</v>
       </c>
@@ -10502,7 +10511,7 @@
       </c>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25">
         <v>2</v>
       </c>
@@ -10515,7 +10524,7 @@
       </c>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25">
         <v>3</v>
       </c>
@@ -10530,7 +10539,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="106">
         <v>4</v>
       </c>
@@ -10546,14 +10555,14 @@
         <v>18.993855370323978</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="105" t="s">
         <v>85</v>
       </c>
@@ -10567,7 +10576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25">
         <v>1</v>
       </c>
@@ -10580,7 +10589,7 @@
       </c>
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25">
         <v>2</v>
       </c>
@@ -10593,7 +10602,7 @@
       </c>
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25">
         <v>3</v>
       </c>
@@ -10606,7 +10615,7 @@
       </c>
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25">
         <v>4</v>
       </c>
@@ -10619,7 +10628,7 @@
       </c>
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25">
         <v>5</v>
       </c>
@@ -10632,7 +10641,7 @@
       </c>
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25">
         <v>6</v>
       </c>
@@ -10645,7 +10654,7 @@
       </c>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25">
         <v>7</v>
       </c>
@@ -10658,7 +10667,7 @@
       </c>
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="106">
         <v>8</v>
       </c>
@@ -10674,9 +10683,9 @@
         <v>333.2142380256293</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>286</v>
       </c>
@@ -10685,7 +10694,7 @@
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
     </row>
-    <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="123" t="s">
         <v>277</v>
       </c>
@@ -10702,7 +10711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25">
         <v>1</v>
       </c>
@@ -10718,7 +10727,7 @@
       </c>
       <c r="E191" s="27"/>
     </row>
-    <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25">
         <v>2</v>
       </c>
@@ -10734,7 +10743,7 @@
       </c>
       <c r="E192" s="27"/>
     </row>
-    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25">
         <v>3</v>
       </c>
@@ -10750,7 +10759,7 @@
       </c>
       <c r="E193" s="27"/>
     </row>
-    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25">
         <v>4</v>
       </c>
@@ -10766,7 +10775,7 @@
       </c>
       <c r="E194" s="27"/>
     </row>
-    <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25">
         <v>5</v>
       </c>
@@ -10782,7 +10791,7 @@
       </c>
       <c r="E195" s="27"/>
     </row>
-    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25">
         <v>6</v>
       </c>
@@ -10798,7 +10807,7 @@
       </c>
       <c r="E196" s="27"/>
     </row>
-    <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25">
         <v>7</v>
       </c>
@@ -10814,7 +10823,7 @@
       </c>
       <c r="E197" s="27"/>
     </row>
-    <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25">
         <v>8</v>
       </c>
@@ -10830,7 +10839,7 @@
       </c>
       <c r="E198" s="27"/>
     </row>
-    <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25">
         <v>9</v>
       </c>
@@ -10846,7 +10855,7 @@
       </c>
       <c r="E199" s="27"/>
     </row>
-    <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="106">
         <v>10</v>
       </c>
@@ -10862,332 +10871,332 @@
       </c>
       <c r="E200" s="30"/>
     </row>
-    <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <dataConsolidate/>
+  <dataConsolidate link="1"/>
   <mergeCells count="5">
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A37:G37"/>
@@ -11283,26 +11292,26 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="24"/>
-    <col min="3" max="3" width="13.25" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="24" customWidth="1"/>
     <col min="5" max="5" width="9" style="24"/>
     <col min="6" max="6" width="15.5" style="24" customWidth="1"/>
     <col min="7" max="9" width="9" style="24"/>
-    <col min="10" max="10" width="11.75" style="24" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="24" customWidth="1"/>
     <col min="11" max="13" width="9" style="24"/>
-    <col min="14" max="14" width="9.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="24" customWidth="1"/>
-    <col min="22" max="22" width="11.75" style="24" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.59765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.09765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.69921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.59765625" style="24" customWidth="1"/>
+    <col min="22" max="22" width="11.69921875" style="24" customWidth="1"/>
     <col min="23" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -11340,7 +11349,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
@@ -11378,7 +11387,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -11416,7 +11425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
@@ -11454,7 +11463,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D5" s="24" t="s">
         <v>20</v>
       </c>
@@ -11480,7 +11489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
@@ -11506,7 +11515,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
@@ -11532,7 +11541,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
@@ -11558,7 +11567,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
@@ -11572,7 +11581,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
@@ -11586,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
@@ -11594,13 +11603,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>55</v>
       </c>
@@ -11668,7 +11677,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>6</v>
       </c>
@@ -11743,7 +11752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>6</v>
       </c>
@@ -11818,7 +11827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>6</v>
       </c>
@@ -11893,7 +11902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>6</v>
       </c>
@@ -11968,7 +11977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>6</v>
       </c>
@@ -12043,7 +12052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>6</v>
       </c>
@@ -12118,7 +12127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -12193,7 +12202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>6</v>
       </c>
@@ -12268,7 +12277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>6</v>
       </c>
@@ -12344,7 +12353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>6</v>
       </c>
@@ -12420,7 +12429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>6</v>
       </c>
@@ -12496,7 +12505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>6</v>
       </c>
@@ -12572,7 +12581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>6</v>
       </c>
@@ -12648,7 +12657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>6</v>
       </c>
@@ -12724,7 +12733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>6</v>
       </c>
@@ -12800,7 +12809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>6</v>
       </c>
@@ -12876,7 +12885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>6</v>
       </c>
@@ -12952,7 +12961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>6</v>
       </c>
@@ -13028,7 +13037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>6</v>
       </c>
@@ -13104,7 +13113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>6</v>
       </c>
@@ -13180,7 +13189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>6</v>
       </c>
@@ -13256,7 +13265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>6</v>
       </c>
@@ -13332,7 +13341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>6</v>
       </c>
@@ -13408,7 +13417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>6</v>
       </c>
@@ -13484,7 +13493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>7</v>
       </c>
@@ -13559,7 +13568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>7</v>
       </c>
@@ -13634,7 +13643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="237" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" s="237" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="237">
         <v>7</v>
       </c>
@@ -13709,7 +13718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>7</v>
       </c>
@@ -13784,7 +13793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>7</v>
       </c>
@@ -13859,7 +13868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>7</v>
       </c>
@@ -13934,7 +13943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>7</v>
       </c>
@@ -14009,7 +14018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>7</v>
       </c>
@@ -14084,7 +14093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>7</v>
       </c>
@@ -14160,7 +14169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>7</v>
       </c>
@@ -14236,7 +14245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>7</v>
       </c>
@@ -14312,7 +14321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>7</v>
       </c>
@@ -14388,7 +14397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>7</v>
       </c>
@@ -14464,7 +14473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>7</v>
       </c>
@@ -14540,7 +14549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>7</v>
       </c>
@@ -14616,7 +14625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>7</v>
       </c>
@@ -14692,7 +14701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>7</v>
       </c>
@@ -14768,7 +14777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>7</v>
       </c>
@@ -14844,7 +14853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>7</v>
       </c>
@@ -14920,7 +14929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>7</v>
       </c>
@@ -14996,7 +15005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>7</v>
       </c>
@@ -15072,7 +15081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>7</v>
       </c>
@@ -15148,7 +15157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>7</v>
       </c>
@@ -15224,7 +15233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>7</v>
       </c>
@@ -15300,7 +15309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>8</v>
       </c>
@@ -15375,7 +15384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>8</v>
       </c>
@@ -15450,7 +15459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>8</v>
       </c>
@@ -15525,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>8</v>
       </c>
@@ -15600,7 +15609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>8</v>
       </c>
@@ -15675,7 +15684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>8</v>
       </c>
@@ -15750,7 +15759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>8</v>
       </c>
@@ -15825,7 +15834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>8</v>
       </c>
@@ -15900,7 +15909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>8</v>
       </c>
@@ -15976,7 +15985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>8</v>
       </c>
@@ -16052,7 +16061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>8</v>
       </c>
@@ -16128,7 +16137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>8</v>
       </c>
@@ -16204,7 +16213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>8</v>
       </c>
@@ -16280,7 +16289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>8</v>
       </c>
@@ -16356,7 +16365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>8</v>
       </c>
@@ -16432,7 +16441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>8</v>
       </c>
@@ -16508,7 +16517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>8</v>
       </c>
@@ -16584,7 +16593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>8</v>
       </c>
@@ -16660,7 +16669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>8</v>
       </c>
@@ -16736,7 +16745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>8</v>
       </c>
@@ -16812,7 +16821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>8</v>
       </c>
@@ -16888,7 +16897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>8</v>
       </c>
@@ -16964,7 +16973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>8</v>
       </c>
@@ -17040,7 +17049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>8</v>
       </c>
@@ -17116,7 +17125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C89" s="16"/>
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
@@ -17137,7 +17146,7 @@
       <c r="T89" s="79"/>
       <c r="U89" s="79"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C90" s="16"/>
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
@@ -17158,12 +17167,12 @@
       <c r="T90" s="79"/>
       <c r="U90" s="79"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>71</v>
       </c>
@@ -17210,7 +17219,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>2</v>
       </c>
@@ -17265,7 +17274,7 @@
         <v>17.885000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>2.2000000000000002</v>
       </c>
@@ -17320,7 +17329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>2.5</v>
       </c>
@@ -17375,7 +17384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="237" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" s="237" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="237">
         <v>3</v>
       </c>
@@ -17430,7 +17439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>3.2</v>
       </c>
@@ -17485,7 +17494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>3.3</v>
       </c>
@@ -17540,7 +17549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>3.4</v>
       </c>
@@ -17595,7 +17604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>3.6</v>
       </c>
@@ -17667,19 +17676,19 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" customWidth="1"/>
+    <col min="9" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.8984375" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>204</v>
       </c>
@@ -17687,7 +17696,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>110</v>
       </c>
@@ -17695,7 +17704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>220</v>
       </c>
@@ -17703,17 +17712,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="24">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C5" s="85">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -17743,7 +17752,7 @@
       <c r="AB12" s="84"/>
       <c r="AC12" s="84"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>210</v>
       </c>
@@ -17832,7 +17841,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="85"/>
@@ -17907,7 +17916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>211</v>
       </c>
@@ -18002,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>211</v>
       </c>
@@ -18097,7 +18106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>211</v>
       </c>
@@ -18134,7 +18143,7 @@
       <c r="AB17" s="89"/>
       <c r="AC17" s="89"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>211</v>
       </c>
@@ -18171,7 +18180,7 @@
       <c r="AB18" s="89"/>
       <c r="AC18" s="89"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>211</v>
       </c>
@@ -18208,7 +18217,7 @@
       <c r="AB19" s="89"/>
       <c r="AC19" s="89"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>211</v>
       </c>
@@ -18245,7 +18254,7 @@
       <c r="AB20" s="89"/>
       <c r="AC20" s="89"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>211</v>
       </c>
@@ -18282,7 +18291,7 @@
       <c r="AB21" s="89"/>
       <c r="AC21" s="89"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>211</v>
       </c>
@@ -18319,7 +18328,7 @@
       <c r="AB22" s="89"/>
       <c r="AC22" s="89"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>212</v>
       </c>
@@ -18362,7 +18371,7 @@
       <c r="AB23" s="89"/>
       <c r="AC23" s="89"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>212</v>
       </c>
@@ -18405,7 +18414,7 @@
       <c r="AB24" s="89"/>
       <c r="AC24" s="89"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>212</v>
       </c>
@@ -18448,7 +18457,7 @@
       <c r="AB25" s="89"/>
       <c r="AC25" s="89"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>212</v>
       </c>
@@ -18491,7 +18500,7 @@
       <c r="AB26" s="89"/>
       <c r="AC26" s="89"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>212</v>
       </c>
@@ -18534,7 +18543,7 @@
       <c r="AB27" s="89"/>
       <c r="AC27" s="89"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>212</v>
       </c>
@@ -18577,7 +18586,7 @@
       <c r="AB28" s="89"/>
       <c r="AC28" s="89"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>212</v>
       </c>
@@ -18620,7 +18629,7 @@
       <c r="AB29" s="89"/>
       <c r="AC29" s="89"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>212</v>
       </c>
@@ -18679,14 +18688,14 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="27" max="27" width="10.75" customWidth="1"/>
-    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="27" max="27" width="10.69921875" customWidth="1"/>
+    <col min="28" max="28" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -18706,7 +18715,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -18720,7 +18729,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -18731,7 +18740,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -18739,7 +18748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -18747,7 +18756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -18755,7 +18764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -18763,7 +18772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -18771,11 +18780,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="78" t="s">
         <v>127</v>
@@ -18898,7 +18907,7 @@
       <c r="AX13" s="24"/>
       <c r="AY13" s="24"/>
     </row>
-    <row r="14" spans="1:51" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="77" t="s">
         <v>97</v>
@@ -19021,7 +19030,7 @@
       <c r="AX14" s="24"/>
       <c r="AY14" s="24"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="77" t="s">
         <v>141</v>
@@ -19144,7 +19153,7 @@
       <c r="AX15" s="24"/>
       <c r="AY15" s="24"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>60</v>
       </c>
@@ -19285,7 +19294,7 @@
       <c r="AX16" s="24"/>
       <c r="AY16" s="24"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
         <v>61</v>
       </c>
@@ -19375,7 +19384,7 @@
         <v>3000</v>
       </c>
       <c r="AA17" s="65">
-        <f>6*1000</f>
+        <f t="shared" ref="AA17:AA23" si="0">6*1000</f>
         <v>6000</v>
       </c>
       <c r="AB17" s="65">
@@ -19425,7 +19434,7 @@
       <c r="AX17" s="24"/>
       <c r="AY17" s="24"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>62</v>
       </c>
@@ -19439,18 +19448,18 @@
         <v>499.99999999999989</v>
       </c>
       <c r="E18" s="65">
-        <f>2.5*1000*0.5</f>
+        <f t="shared" ref="E18:E23" si="1">2.5*1000*0.5</f>
         <v>1250</v>
       </c>
       <c r="F18" s="65">
-        <f t="shared" ref="F18:F23" si="0">2.5*1000</f>
+        <f t="shared" ref="F18:F23" si="2">2.5*1000</f>
         <v>2500</v>
       </c>
       <c r="G18" s="65">
         <v>0</v>
       </c>
       <c r="H18" s="65">
-        <f t="shared" ref="H18:H23" si="1">0.475*1000</f>
+        <f t="shared" ref="H18:H23" si="3">0.475*1000</f>
         <v>475</v>
       </c>
       <c r="I18" s="65">
@@ -19474,18 +19483,18 @@
         <v>4000</v>
       </c>
       <c r="O18" s="65">
-        <f t="shared" ref="O18:O23" si="2">6.5*1000</f>
+        <f t="shared" ref="O18:O23" si="4">6.5*1000</f>
         <v>6500</v>
       </c>
       <c r="P18" s="65">
-        <f t="shared" ref="P18:P23" si="3">6*1000</f>
+        <f t="shared" ref="P18:P23" si="5">6*1000</f>
         <v>6000</v>
       </c>
       <c r="Q18" s="65">
         <v>20</v>
       </c>
       <c r="R18" s="65">
-        <f t="shared" ref="R18:R23" si="4">0.475*1000</f>
+        <f t="shared" ref="R18:R23" si="6">0.475*1000</f>
         <v>475</v>
       </c>
       <c r="S18" s="65">
@@ -19514,7 +19523,7 @@
         <v>4000</v>
       </c>
       <c r="AA18" s="65">
-        <f>6*1000</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AB18" s="65">
@@ -19524,7 +19533,7 @@
         <v>20</v>
       </c>
       <c r="AD18" s="65">
-        <f t="shared" ref="AD18:AD23" si="5">0.475*1000</f>
+        <f t="shared" ref="AD18:AD23" si="7">0.475*1000</f>
         <v>475</v>
       </c>
       <c r="AE18" s="65">
@@ -19563,7 +19572,7 @@
       <c r="AX18" s="24"/>
       <c r="AY18" s="24"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>63</v>
       </c>
@@ -19577,18 +19586,18 @@
         <v>999.99999999999977</v>
       </c>
       <c r="E19" s="65">
-        <f t="shared" ref="E19:E23" si="6">2.5*1000*0.5</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="F19" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="G19" s="65">
         <v>0</v>
       </c>
       <c r="H19" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="I19" s="65">
@@ -19612,18 +19621,18 @@
         <v>4500</v>
       </c>
       <c r="O19" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
       <c r="P19" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="Q19" s="65">
         <v>20</v>
       </c>
       <c r="R19" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="S19" s="65">
@@ -19652,7 +19661,7 @@
         <v>4500</v>
       </c>
       <c r="AA19" s="65">
-        <f t="shared" ref="AA19:AA23" si="7">6*1000</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AB19" s="65">
@@ -19662,7 +19671,7 @@
         <v>20</v>
       </c>
       <c r="AD19" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="AE19" s="65">
@@ -19701,7 +19710,7 @@
       <c r="AX19" s="24"/>
       <c r="AY19" s="24"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>64</v>
       </c>
@@ -19715,25 +19724,25 @@
         <v>749.99999999999989</v>
       </c>
       <c r="E20" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="F20" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="G20" s="65">
         <v>0</v>
       </c>
       <c r="H20" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="I20" s="65">
         <v>100</v>
       </c>
       <c r="J20" s="65">
-        <f t="shared" ref="J20:J23" si="8">1*1000</f>
+        <f>1*1000</f>
         <v>1000</v>
       </c>
       <c r="K20" s="78"/>
@@ -19750,18 +19759,18 @@
         <v>5000</v>
       </c>
       <c r="O20" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
       <c r="P20" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="Q20" s="65">
         <v>20</v>
       </c>
       <c r="R20" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="S20" s="65">
@@ -19790,7 +19799,7 @@
         <v>5000</v>
       </c>
       <c r="AA20" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AB20" s="65">
@@ -19800,7 +19809,7 @@
         <v>20</v>
       </c>
       <c r="AD20" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="AE20" s="65">
@@ -19839,7 +19848,7 @@
       <c r="AX20" s="24"/>
       <c r="AY20" s="24"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>65</v>
       </c>
@@ -19853,25 +19862,25 @@
         <v>1249.9999999999998</v>
       </c>
       <c r="E21" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="F21" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="G21" s="65">
         <v>0</v>
       </c>
       <c r="H21" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="I21" s="65">
         <v>200</v>
       </c>
       <c r="J21" s="65">
-        <f t="shared" si="8"/>
+        <f>1*1000</f>
         <v>1000</v>
       </c>
       <c r="K21" s="78"/>
@@ -19888,18 +19897,18 @@
         <v>5400</v>
       </c>
       <c r="O21" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
       <c r="P21" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="Q21" s="65">
         <v>20</v>
       </c>
       <c r="R21" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="S21" s="65">
@@ -19928,7 +19937,7 @@
         <v>5400</v>
       </c>
       <c r="AA21" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AB21" s="65">
@@ -19938,7 +19947,7 @@
         <v>20</v>
       </c>
       <c r="AD21" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="AE21" s="65">
@@ -19977,7 +19986,7 @@
       <c r="AX21" s="24"/>
       <c r="AY21" s="24"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>66</v>
       </c>
@@ -19991,25 +20000,25 @@
         <v>999.99999999999977</v>
       </c>
       <c r="E22" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="F22" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="G22" s="65">
         <v>0</v>
       </c>
       <c r="H22" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="I22" s="65">
         <v>100</v>
       </c>
       <c r="J22" s="65">
-        <f t="shared" si="8"/>
+        <f>1*1000</f>
         <v>1000</v>
       </c>
       <c r="K22" s="78"/>
@@ -20026,18 +20035,18 @@
         <v>6000</v>
       </c>
       <c r="O22" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
       <c r="P22" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="Q22" s="65">
         <v>20</v>
       </c>
       <c r="R22" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="S22" s="65">
@@ -20066,7 +20075,7 @@
         <v>6000</v>
       </c>
       <c r="AA22" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AB22" s="65">
@@ -20076,7 +20085,7 @@
         <v>20</v>
       </c>
       <c r="AD22" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="AE22" s="65">
@@ -20115,7 +20124,7 @@
       <c r="AX22" s="24"/>
       <c r="AY22" s="24"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>67</v>
       </c>
@@ -20129,25 +20138,25 @@
         <v>1499.9999999999998</v>
       </c>
       <c r="E23" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="F23" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="G23" s="65">
         <v>0</v>
       </c>
       <c r="H23" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="I23" s="65">
         <v>250</v>
       </c>
       <c r="J23" s="65">
-        <f t="shared" si="8"/>
+        <f>1*1000</f>
         <v>1000</v>
       </c>
       <c r="K23" s="78"/>
@@ -20164,18 +20173,18 @@
         <v>6000</v>
       </c>
       <c r="O23" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
       <c r="P23" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="Q23" s="65">
         <v>20</v>
       </c>
       <c r="R23" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="S23" s="65">
@@ -20204,7 +20213,7 @@
         <v>6000</v>
       </c>
       <c r="AA23" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AB23" s="65">
@@ -20214,7 +20223,7 @@
         <v>20</v>
       </c>
       <c r="AD23" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="AE23" s="65">
@@ -20253,7 +20262,7 @@
       <c r="AX23" s="24"/>
       <c r="AY23" s="24"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -20306,7 +20315,7 @@
       <c r="AX24" s="24"/>
       <c r="AY24" s="24"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -20359,7 +20368,7 @@
       <c r="AX25" s="24"/>
       <c r="AY25" s="24"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
       <c r="B26" s="65" t="s">
         <v>143</v>
@@ -20428,7 +20437,7 @@
       <c r="AX26" s="24"/>
       <c r="AY26" s="24"/>
     </row>
-    <row r="27" spans="1:51" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:51" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="B27" s="66" t="s">
         <v>111</v>
@@ -20497,7 +20506,7 @@
       <c r="AX27" s="24"/>
       <c r="AY27" s="24"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
       <c r="B28" s="66" t="s">
         <v>145</v>
@@ -20566,7 +20575,7 @@
       <c r="AX28" s="24"/>
       <c r="AY28" s="24"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>60</v>
       </c>
@@ -20639,7 +20648,7 @@
       <c r="AX29" s="24"/>
       <c r="AY29" s="24"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>61</v>
       </c>
@@ -20667,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="65">
-        <f t="shared" ref="I30:I36" si="9">C30</f>
+        <f t="shared" ref="I30:I36" si="8">C30</f>
         <v>1800</v>
       </c>
       <c r="J30" s="24"/>
@@ -20713,7 +20722,7 @@
       <c r="AX30" s="24"/>
       <c r="AY30" s="24"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
         <v>62</v>
       </c>
@@ -20734,14 +20743,14 @@
         <v>1800</v>
       </c>
       <c r="G31" s="65">
-        <f t="shared" ref="G31:G36" si="10">40*0.475</f>
+        <f t="shared" ref="G31:G36" si="9">40*0.475</f>
         <v>19</v>
       </c>
       <c r="H31" s="65">
         <v>0</v>
       </c>
       <c r="I31" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J31" s="24"/>
@@ -20787,7 +20796,7 @@
       <c r="AX31" s="24"/>
       <c r="AY31" s="24"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>63</v>
       </c>
@@ -20808,14 +20817,14 @@
         <v>900</v>
       </c>
       <c r="G32" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="H32" s="65">
         <v>50</v>
       </c>
       <c r="I32" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J32" s="24"/>
@@ -20861,7 +20870,7 @@
       <c r="AX32" s="24"/>
       <c r="AY32" s="24"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>64</v>
       </c>
@@ -20882,14 +20891,14 @@
         <v>1800</v>
       </c>
       <c r="G33" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="H33" s="65">
         <v>20</v>
       </c>
       <c r="I33" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J33" s="24"/>
@@ -20935,7 +20944,7 @@
       <c r="AX33" s="24"/>
       <c r="AY33" s="24"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>65</v>
       </c>
@@ -20956,14 +20965,14 @@
         <v>900</v>
       </c>
       <c r="G34" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="H34" s="65">
         <v>50</v>
       </c>
       <c r="I34" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J34" s="24"/>
@@ -21009,7 +21018,7 @@
       <c r="AX34" s="24"/>
       <c r="AY34" s="24"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>66</v>
       </c>
@@ -21030,14 +21039,14 @@
         <v>1800</v>
       </c>
       <c r="G35" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="H35" s="65">
         <v>20</v>
       </c>
       <c r="I35" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J35" s="24"/>
@@ -21083,7 +21092,7 @@
       <c r="AX35" s="24"/>
       <c r="AY35" s="24"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>67</v>
       </c>
@@ -21104,14 +21113,14 @@
         <v>900</v>
       </c>
       <c r="G36" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="H36" s="65">
         <v>50</v>
       </c>
       <c r="I36" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J36" s="24"/>

--- a/demo/导表/土建工程量_test.xlsx
+++ b/demo/导表/土建工程量_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOdoo12_community\myaddons\auto_word\demo\导表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC8DF5A-B25B-4B32-9151-720162FB49FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E3BA1-BFCF-4DD2-826C-43C0C43A850C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3435" windowWidth="20010" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,7 @@
     <definedName name="_Toc294106962" localSheetId="0">成果输出!#REF!</definedName>
     <definedName name="OLE_LINK5" localSheetId="0">成果输出!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4504,25 +4503,25 @@
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="11.19921875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="11.19921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.69921875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
         <v>364</v>
       </c>
@@ -4534,7 +4533,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="123" t="s">
         <v>312</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="180" t="s">
         <v>319</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="180" t="s">
         <v>320</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="180" t="s">
         <v>321</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="180" t="s">
         <v>322</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="180" t="s">
         <v>323</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>5033.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="182" t="s">
         <v>324</v>
       </c>
@@ -4731,9 +4730,9 @@
         <v>3734.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="147" t="s">
         <v>366</v>
       </c>
@@ -4745,7 +4744,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="123" t="s">
         <v>327</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="180">
         <v>1</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="180">
         <v>2</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="180">
         <v>3</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182">
         <v>4</v>
       </c>
@@ -4975,9 +4974,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>367</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="123" t="s">
         <v>344</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="180"/>
       <c r="B21" s="177"/>
       <c r="C21" s="177" t="s">
@@ -5021,7 +5020,7 @@
       </c>
       <c r="G21" s="181"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="244" t="s">
         <v>348</v>
       </c>
@@ -5032,7 +5031,7 @@
       <c r="F22" s="245"/>
       <c r="G22" s="246"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="180" t="s">
         <v>349</v>
       </c>
@@ -5055,7 +5054,7 @@
       </c>
       <c r="G23" s="181"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="180" t="s">
         <v>350</v>
       </c>
@@ -5066,7 +5065,7 @@
       <c r="F24" s="177"/>
       <c r="G24" s="181"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="180" t="s">
         <v>351</v>
       </c>
@@ -5091,7 +5090,7 @@
       </c>
       <c r="G25" s="181"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="180" t="s">
         <v>353</v>
       </c>
@@ -5116,7 +5115,7 @@
       </c>
       <c r="G26" s="181"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="244" t="s">
         <v>354</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="F27" s="245"/>
       <c r="G27" s="246"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="180" t="s">
         <v>355</v>
       </c>
@@ -5152,7 +5151,7 @@
       </c>
       <c r="G28" s="181"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="180" t="s">
         <v>357</v>
       </c>
@@ -5175,7 +5174,7 @@
       </c>
       <c r="G29" s="181"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="244" t="s">
         <v>358</v>
       </c>
@@ -5186,7 +5185,7 @@
       <c r="F30" s="245"/>
       <c r="G30" s="246"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="180" t="s">
         <v>359</v>
       </c>
@@ -5209,7 +5208,7 @@
       </c>
       <c r="G31" s="181"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="182" t="s">
         <v>360</v>
       </c>
@@ -5232,9 +5231,9 @@
       </c>
       <c r="G32" s="183"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>386</v>
       </c>
@@ -5246,7 +5245,7 @@
       <c r="E35" s="195"/>
       <c r="F35" s="195"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="203" t="s">
         <v>12</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -5288,7 +5287,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -5308,7 +5307,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>3</v>
       </c>
@@ -5328,7 +5327,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>4</v>
       </c>
@@ -5348,7 +5347,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>5</v>
       </c>
@@ -5368,7 +5367,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>6</v>
       </c>
@@ -5388,7 +5387,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>7</v>
       </c>
@@ -5408,7 +5407,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>8</v>
       </c>
@@ -5428,7 +5427,7 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>9</v>
       </c>
@@ -5448,7 +5447,7 @@
       </c>
       <c r="F45" s="200"/>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="74">
         <v>10</v>
       </c>
@@ -5468,7 +5467,7 @@
       </c>
       <c r="F46" s="201"/>
     </row>
-    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>370</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="123" t="s">
         <v>85</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="180">
         <v>1</v>
       </c>
@@ -5518,7 +5517,7 @@
       </c>
       <c r="F51" s="181"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="180">
         <v>2</v>
       </c>
@@ -5538,7 +5537,7 @@
       </c>
       <c r="F52" s="181"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="180">
         <v>3</v>
       </c>
@@ -5558,7 +5557,7 @@
       </c>
       <c r="F53" s="181"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="180">
         <v>4</v>
       </c>
@@ -5578,7 +5577,7 @@
       </c>
       <c r="F54" s="181"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="180">
         <v>5</v>
       </c>
@@ -5598,7 +5597,7 @@
       </c>
       <c r="F55" s="181"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="180">
         <v>6</v>
       </c>
@@ -5618,7 +5617,7 @@
       </c>
       <c r="F56" s="181"/>
     </row>
-    <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="182">
         <v>7</v>
       </c>
@@ -5638,7 +5637,7 @@
       </c>
       <c r="F57" s="183"/>
     </row>
-    <row r="60" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>373</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="100" t="s">
         <v>12</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="208">
         <v>1</v>
       </c>
@@ -5680,7 +5679,7 @@
       </c>
       <c r="E62" s="95"/>
     </row>
-    <row r="63" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="208">
         <v>2</v>
       </c>
@@ -5696,7 +5695,7 @@
       </c>
       <c r="E63" s="95"/>
     </row>
-    <row r="64" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="208">
         <v>3</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="208">
         <v>4</v>
       </c>
@@ -5730,7 +5729,7 @@
       </c>
       <c r="E65" s="96"/>
     </row>
-    <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="208">
         <v>5</v>
       </c>
@@ -5746,7 +5745,7 @@
       </c>
       <c r="E66" s="95"/>
     </row>
-    <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="208">
         <v>6</v>
       </c>
@@ -5762,7 +5761,7 @@
       </c>
       <c r="E67" s="95"/>
     </row>
-    <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="208">
         <v>7</v>
       </c>
@@ -5778,7 +5777,7 @@
       </c>
       <c r="E68" s="95"/>
     </row>
-    <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="208">
         <v>8</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="208">
         <v>9</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="208">
         <v>10</v>
       </c>
@@ -5830,7 +5829,7 @@
       </c>
       <c r="E71" s="95"/>
     </row>
-    <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="208">
         <v>11</v>
       </c>
@@ -5846,7 +5845,7 @@
       </c>
       <c r="E72" s="95"/>
     </row>
-    <row r="73" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="208">
         <v>12</v>
       </c>
@@ -5862,7 +5861,7 @@
       </c>
       <c r="E73" s="95"/>
     </row>
-    <row r="74" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="208">
         <v>13</v>
       </c>
@@ -5878,7 +5877,7 @@
       </c>
       <c r="E74" s="95"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="208">
         <v>14</v>
       </c>
@@ -5892,7 +5891,7 @@
       </c>
       <c r="E75" s="95"/>
     </row>
-    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="208">
         <v>15</v>
       </c>
@@ -5908,7 +5907,7 @@
       </c>
       <c r="E76" s="95"/>
     </row>
-    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="208">
         <v>16</v>
       </c>
@@ -5924,7 +5923,7 @@
       </c>
       <c r="E77" s="95"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="208">
         <v>17</v>
       </c>
@@ -5940,7 +5939,7 @@
       </c>
       <c r="E78" s="95"/>
     </row>
-    <row r="79" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="208">
         <v>18</v>
       </c>
@@ -5956,7 +5955,7 @@
       </c>
       <c r="E79" s="95"/>
     </row>
-    <row r="80" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="208">
         <v>19</v>
       </c>
@@ -5972,7 +5971,7 @@
       </c>
       <c r="E80" s="95"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="208">
         <v>20</v>
       </c>
@@ -5988,7 +5987,7 @@
       </c>
       <c r="E81" s="95"/>
     </row>
-    <row r="82" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="208">
         <v>21</v>
       </c>
@@ -6004,7 +6003,7 @@
       </c>
       <c r="E82" s="95"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="208">
         <v>22</v>
       </c>
@@ -6020,7 +6019,7 @@
       </c>
       <c r="E83" s="95"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="208">
         <v>23</v>
       </c>
@@ -6036,7 +6035,7 @@
       </c>
       <c r="E84" s="95"/>
     </row>
-    <row r="85" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="210">
         <v>24</v>
       </c>
@@ -6052,7 +6051,7 @@
       </c>
       <c r="E85" s="101"/>
     </row>
-    <row r="88" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>374</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="123" t="s">
         <v>95</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="180" t="s">
         <v>127</v>
       </c>
@@ -6102,7 +6101,7 @@
       </c>
       <c r="F90" s="189"/>
     </row>
-    <row r="91" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="180">
         <v>1</v>
       </c>
@@ -6122,7 +6121,7 @@
       </c>
       <c r="F91" s="186"/>
     </row>
-    <row r="92" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="180">
         <v>2</v>
       </c>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="F92" s="186"/>
     </row>
-    <row r="93" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="180">
         <v>3</v>
       </c>
@@ -6162,7 +6161,7 @@
       </c>
       <c r="F93" s="186"/>
     </row>
-    <row r="94" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="180">
         <v>4</v>
       </c>
@@ -6182,7 +6181,7 @@
       </c>
       <c r="F94" s="186"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="180">
         <v>5</v>
       </c>
@@ -6202,7 +6201,7 @@
       </c>
       <c r="F95" s="186"/>
     </row>
-    <row r="96" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="180">
         <v>6</v>
       </c>
@@ -6222,7 +6221,7 @@
       </c>
       <c r="F96" s="186"/>
     </row>
-    <row r="97" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="180">
         <v>7</v>
       </c>
@@ -6242,7 +6241,7 @@
       </c>
       <c r="F97" s="186"/>
     </row>
-    <row r="98" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="180">
         <v>8</v>
       </c>
@@ -6262,7 +6261,7 @@
       </c>
       <c r="F98" s="186"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="180" t="s">
         <v>128</v>
       </c>
@@ -6282,7 +6281,7 @@
       </c>
       <c r="F99" s="186"/>
     </row>
-    <row r="100" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="180">
         <v>1</v>
       </c>
@@ -6302,7 +6301,7 @@
       </c>
       <c r="F100" s="186"/>
     </row>
-    <row r="101" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="180">
         <v>2</v>
       </c>
@@ -6322,7 +6321,7 @@
       </c>
       <c r="F101" s="186"/>
     </row>
-    <row r="102" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="180">
         <v>3</v>
       </c>
@@ -6342,7 +6341,7 @@
       </c>
       <c r="F102" s="186"/>
     </row>
-    <row r="103" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="180">
         <v>4</v>
       </c>
@@ -6362,7 +6361,7 @@
       </c>
       <c r="F103" s="186"/>
     </row>
-    <row r="104" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="180">
         <v>5</v>
       </c>
@@ -6382,7 +6381,7 @@
       </c>
       <c r="F104" s="186"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="180">
         <v>6</v>
       </c>
@@ -6402,7 +6401,7 @@
       </c>
       <c r="F105" s="186"/>
     </row>
-    <row r="106" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="180">
         <v>7</v>
       </c>
@@ -6422,7 +6421,7 @@
       </c>
       <c r="F106" s="186"/>
     </row>
-    <row r="107" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="180">
         <v>8</v>
       </c>
@@ -6442,7 +6441,7 @@
       </c>
       <c r="F107" s="186"/>
     </row>
-    <row r="108" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="180">
         <v>9</v>
       </c>
@@ -6462,7 +6461,7 @@
       </c>
       <c r="F108" s="186"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="180">
         <v>10</v>
       </c>
@@ -6482,7 +6481,7 @@
       </c>
       <c r="F109" s="186"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="180">
         <v>11</v>
       </c>
@@ -6502,7 +6501,7 @@
       </c>
       <c r="F110" s="186"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="180" t="s">
         <v>129</v>
       </c>
@@ -6522,7 +6521,7 @@
       </c>
       <c r="F111" s="186"/>
     </row>
-    <row r="112" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="180">
         <v>1</v>
       </c>
@@ -6542,7 +6541,7 @@
       </c>
       <c r="F112" s="189"/>
     </row>
-    <row r="113" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="180">
         <v>2</v>
       </c>
@@ -6562,7 +6561,7 @@
       </c>
       <c r="F113" s="189"/>
     </row>
-    <row r="114" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="180">
         <v>3</v>
       </c>
@@ -6582,7 +6581,7 @@
       </c>
       <c r="F114" s="189"/>
     </row>
-    <row r="115" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="180">
         <v>4</v>
       </c>
@@ -6602,7 +6601,7 @@
       </c>
       <c r="F115" s="189"/>
     </row>
-    <row r="116" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="180">
         <v>5</v>
       </c>
@@ -6622,7 +6621,7 @@
       </c>
       <c r="F116" s="189"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="180">
         <v>6</v>
       </c>
@@ -6642,7 +6641,7 @@
       </c>
       <c r="F117" s="189"/>
     </row>
-    <row r="118" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="180">
         <v>7</v>
       </c>
@@ -6662,7 +6661,7 @@
       </c>
       <c r="F118" s="189"/>
     </row>
-    <row r="119" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="180">
         <v>8</v>
       </c>
@@ -6682,7 +6681,7 @@
       </c>
       <c r="F119" s="189"/>
     </row>
-    <row r="120" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="180">
         <v>9</v>
       </c>
@@ -6702,7 +6701,7 @@
       </c>
       <c r="F120" s="189"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="180">
         <v>10</v>
       </c>
@@ -6722,7 +6721,7 @@
       </c>
       <c r="F121" s="189"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="180">
         <v>11</v>
       </c>
@@ -6742,7 +6741,7 @@
       </c>
       <c r="F122" s="189"/>
     </row>
-    <row r="123" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="180">
         <v>12</v>
       </c>
@@ -6762,7 +6761,7 @@
       </c>
       <c r="F123" s="189"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="180" t="s">
         <v>130</v>
       </c>
@@ -6782,7 +6781,7 @@
       </c>
       <c r="F124" s="186"/>
     </row>
-    <row r="125" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="180">
         <v>1</v>
       </c>
@@ -6802,7 +6801,7 @@
       </c>
       <c r="F125" s="186"/>
     </row>
-    <row r="126" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="180">
         <v>2</v>
       </c>
@@ -6822,7 +6821,7 @@
       </c>
       <c r="F126" s="186"/>
     </row>
-    <row r="127" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="180">
         <v>3</v>
       </c>
@@ -6842,7 +6841,7 @@
       </c>
       <c r="F127" s="186"/>
     </row>
-    <row r="128" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="180">
         <v>4</v>
       </c>
@@ -6862,7 +6861,7 @@
       </c>
       <c r="F128" s="186"/>
     </row>
-    <row r="129" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="180">
         <v>5</v>
       </c>
@@ -6882,7 +6881,7 @@
       </c>
       <c r="F129" s="186"/>
     </row>
-    <row r="130" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="182">
         <v>6</v>
       </c>
@@ -6902,7 +6901,7 @@
       </c>
       <c r="F130" s="192"/>
     </row>
-    <row r="133" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>375</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="123" t="s">
         <v>85</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="180">
         <v>1</v>
       </c>
@@ -6946,7 +6945,7 @@
       </c>
       <c r="E135" s="181"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="180">
         <v>2</v>
       </c>
@@ -6963,7 +6962,7 @@
       </c>
       <c r="E136" s="181"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="180">
         <v>3</v>
       </c>
@@ -6980,7 +6979,7 @@
       </c>
       <c r="E137" s="181"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="180">
         <v>4</v>
       </c>
@@ -6997,7 +6996,7 @@
       </c>
       <c r="E138" s="181"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="180">
         <v>5</v>
       </c>
@@ -7014,7 +7013,7 @@
       </c>
       <c r="E139" s="181"/>
     </row>
-    <row r="140" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="182">
         <v>6</v>
       </c>
@@ -7031,7 +7030,7 @@
       </c>
       <c r="E140" s="183"/>
     </row>
-    <row r="143" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>377</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="216" t="s">
         <v>85</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>弃土（m3）</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="220">
         <v>1</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>10419.80810276195</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="220">
         <v>2</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>30763.782499999998</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="220">
         <v>3</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="220">
         <v>4</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="220">
         <v>5</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="223">
         <v>6</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>253183.59060276195</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>379</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="227" t="s">
         <v>12</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="230">
         <v>1</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>383</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="123" t="s">
         <v>12</v>
       </c>
@@ -7262,7 +7261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="180">
         <v>1</v>
       </c>
@@ -7275,7 +7274,7 @@
       </c>
       <c r="D160" s="181"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="180">
         <v>2</v>
       </c>
@@ -7288,7 +7287,7 @@
       </c>
       <c r="D161" s="181"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="180">
         <v>3</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="182">
         <v>4</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>18.993855370323978</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>384</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="123" t="s">
         <v>85</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="180">
         <v>1</v>
       </c>
@@ -7355,7 +7354,7 @@
       </c>
       <c r="D168" s="181"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="180">
         <v>2</v>
       </c>
@@ -7368,7 +7367,7 @@
       </c>
       <c r="D169" s="181"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="180">
         <v>3</v>
       </c>
@@ -7381,7 +7380,7 @@
       </c>
       <c r="D170" s="181"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="180">
         <v>4</v>
       </c>
@@ -7394,7 +7393,7 @@
       </c>
       <c r="D171" s="181"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="180">
         <v>5</v>
       </c>
@@ -7407,7 +7406,7 @@
       </c>
       <c r="D172" s="181"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="180">
         <v>6</v>
       </c>
@@ -7420,7 +7419,7 @@
       </c>
       <c r="D173" s="181"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="180">
         <v>7</v>
       </c>
@@ -7433,7 +7432,7 @@
       </c>
       <c r="D174" s="181"/>
     </row>
-    <row r="175" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="182">
         <v>8</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>333.2142380256293</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>385</v>
       </c>
@@ -7460,7 +7459,7 @@
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="123" t="s">
         <v>12</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="180">
         <v>1</v>
       </c>
@@ -7494,7 +7493,7 @@
       </c>
       <c r="E180" s="181"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="180">
         <v>2</v>
       </c>
@@ -7510,7 +7509,7 @@
       </c>
       <c r="E181" s="181"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="180">
         <v>3</v>
       </c>
@@ -7526,7 +7525,7 @@
       </c>
       <c r="E182" s="181"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="180">
         <v>4</v>
       </c>
@@ -7542,7 +7541,7 @@
       </c>
       <c r="E183" s="181"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="180">
         <v>5</v>
       </c>
@@ -7558,7 +7557,7 @@
       </c>
       <c r="E184" s="181"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="180">
         <v>6</v>
       </c>
@@ -7574,7 +7573,7 @@
       </c>
       <c r="E185" s="181"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="180">
         <v>7</v>
       </c>
@@ -7590,7 +7589,7 @@
       </c>
       <c r="E186" s="181"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="180">
         <v>8</v>
       </c>
@@ -7606,7 +7605,7 @@
       </c>
       <c r="E187" s="181"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="180">
         <v>9</v>
       </c>
@@ -7622,7 +7621,7 @@
       </c>
       <c r="E188" s="181"/>
     </row>
-    <row r="189" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="182">
         <v>10</v>
       </c>
@@ -7658,30 +7657,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M523"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="9" width="11.8984375" customWidth="1"/>
-    <col min="10" max="10" width="12.09765625" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="17.69921875" customWidth="1"/>
-    <col min="13" max="13" width="32.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="32.375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.69921875" customWidth="1"/>
-    <col min="18" max="18" width="11.19921875" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>7</v>
       </c>
@@ -7740,13 +7739,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="10"/>
       <c r="M3" s="142" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>90</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>156</v>
       </c>
@@ -7823,8 +7822,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="141">
         <v>15000</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -7872,7 +7871,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -7880,7 +7879,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="147" t="s">
         <v>325</v>
       </c>
@@ -7890,7 +7889,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="167" t="s">
         <v>312</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="170" t="s">
         <v>319</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="170" t="s">
         <v>320</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="170" t="s">
         <v>321</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="170" t="s">
         <v>322</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>1598.3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="170" t="s">
         <v>323</v>
       </c>
@@ -8028,7 +8027,7 @@
         <v>5033.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="171" t="s">
         <v>324</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>3734.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -8059,7 +8058,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -8067,7 +8066,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="147" t="s">
         <v>326</v>
       </c>
@@ -8077,7 +8076,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="161" t="s">
         <v>327</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="165">
         <v>1</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="165">
         <v>2</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="165">
         <v>3</v>
       </c>
@@ -8209,7 +8208,7 @@
       <c r="K25" s="153"/>
       <c r="L25" s="154"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="166">
         <v>4</v>
       </c>
@@ -8227,7 +8226,7 @@
       <c r="K26" s="157"/>
       <c r="L26" s="158"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -8235,7 +8234,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -8243,7 +8242,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="160" t="s">
         <v>343</v>
       </c>
@@ -8253,7 +8252,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="159" t="s">
         <v>344</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="159"/>
       <c r="B31" s="159"/>
       <c r="C31" s="159" t="s">
@@ -8289,7 +8288,7 @@
       </c>
       <c r="G31" s="159"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="247" t="s">
         <v>348</v>
       </c>
@@ -8300,7 +8299,7 @@
       <c r="F32" s="248"/>
       <c r="G32" s="249"/>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="159" t="s">
         <v>349</v>
       </c>
@@ -8319,7 +8318,7 @@
       </c>
       <c r="G33" s="159"/>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="159" t="s">
         <v>350</v>
       </c>
@@ -8330,7 +8329,7 @@
       <c r="F34" s="159"/>
       <c r="G34" s="159"/>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="159" t="s">
         <v>351</v>
       </c>
@@ -8351,7 +8350,7 @@
       </c>
       <c r="G35" s="159"/>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="159" t="s">
         <v>353</v>
       </c>
@@ -8372,7 +8371,7 @@
       </c>
       <c r="G36" s="159"/>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="247" t="s">
         <v>354</v>
       </c>
@@ -8383,7 +8382,7 @@
       <c r="F37" s="248"/>
       <c r="G37" s="249"/>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="159" t="s">
         <v>355</v>
       </c>
@@ -8404,7 +8403,7 @@
       </c>
       <c r="G38" s="159"/>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="159" t="s">
         <v>357</v>
       </c>
@@ -8423,7 +8422,7 @@
       </c>
       <c r="G39" s="159"/>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="247" t="s">
         <v>358</v>
       </c>
@@ -8434,7 +8433,7 @@
       <c r="F40" s="248"/>
       <c r="G40" s="249"/>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="159" t="s">
         <v>359</v>
       </c>
@@ -8453,7 +8452,7 @@
       </c>
       <c r="G41" s="159"/>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="159" t="s">
         <v>360</v>
       </c>
@@ -8472,7 +8471,7 @@
       </c>
       <c r="G42" s="159"/>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -8480,13 +8479,13 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -8527,7 +8526,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>2</v>
       </c>
@@ -8547,7 +8546,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>3</v>
       </c>
@@ -8567,7 +8566,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>4</v>
       </c>
@@ -8587,7 +8586,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>5</v>
       </c>
@@ -8607,7 +8606,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>6</v>
       </c>
@@ -8627,7 +8626,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>7</v>
       </c>
@@ -8646,7 +8645,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>8</v>
       </c>
@@ -8665,7 +8664,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>9</v>
       </c>
@@ -8685,7 +8684,7 @@
       </c>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="72">
         <v>10</v>
       </c>
@@ -8705,7 +8704,7 @@
       </c>
       <c r="F56" s="73"/>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="74">
         <v>11</v>
       </c>
@@ -8725,14 +8724,14 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57" t="s">
         <v>85</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="25">
         <v>1</v>
       </c>
@@ -8773,7 +8772,7 @@
       </c>
       <c r="F62" s="27"/>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="25">
         <v>2</v>
       </c>
@@ -8793,7 +8792,7 @@
       </c>
       <c r="F63" s="27"/>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="25">
         <v>3</v>
       </c>
@@ -8813,7 +8812,7 @@
       </c>
       <c r="F64" s="27"/>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="25">
         <v>4</v>
       </c>
@@ -8833,7 +8832,7 @@
       </c>
       <c r="F65" s="27"/>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="25">
         <v>5</v>
       </c>
@@ -8853,7 +8852,7 @@
       </c>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25">
         <v>6</v>
       </c>
@@ -8873,7 +8872,7 @@
       </c>
       <c r="F67" s="27"/>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <v>7</v>
       </c>
@@ -8893,14 +8892,14 @@
       </c>
       <c r="F68" s="30"/>
     </row>
-    <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="100" t="s">
         <v>234</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="135">
         <v>1</v>
       </c>
@@ -8933,7 +8932,7 @@
       </c>
       <c r="E73" s="95"/>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="135">
         <v>2</v>
       </c>
@@ -8949,7 +8948,7 @@
       </c>
       <c r="E74" s="95"/>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="135">
         <v>3</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="135">
         <v>4</v>
       </c>
@@ -8983,7 +8982,7 @@
       </c>
       <c r="E76" s="96"/>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="135">
         <v>5</v>
       </c>
@@ -8999,7 +8998,7 @@
       </c>
       <c r="E77" s="95"/>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="135">
         <v>6</v>
       </c>
@@ -9015,7 +9014,7 @@
       </c>
       <c r="E78" s="95"/>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="135">
         <v>7</v>
       </c>
@@ -9031,7 +9030,7 @@
       </c>
       <c r="E79" s="95"/>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="135">
         <v>8</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="135">
         <v>9</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="135">
         <v>10</v>
       </c>
@@ -9083,7 +9082,7 @@
       </c>
       <c r="E82" s="95"/>
     </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="135">
         <v>11</v>
       </c>
@@ -9099,7 +9098,7 @@
       </c>
       <c r="E83" s="95"/>
     </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="135">
         <v>12</v>
       </c>
@@ -9115,7 +9114,7 @@
       </c>
       <c r="E84" s="95"/>
     </row>
-    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="135">
         <v>13</v>
       </c>
@@ -9131,7 +9130,7 @@
       </c>
       <c r="E85" s="95"/>
     </row>
-    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="135">
         <v>14</v>
       </c>
@@ -9142,7 +9141,7 @@
       <c r="D86" s="102"/>
       <c r="E86" s="95"/>
     </row>
-    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="135">
         <v>15</v>
       </c>
@@ -9158,7 +9157,7 @@
       </c>
       <c r="E87" s="95"/>
     </row>
-    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="135">
         <v>16</v>
       </c>
@@ -9174,7 +9173,7 @@
       </c>
       <c r="E88" s="95"/>
     </row>
-    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="135">
         <v>17</v>
       </c>
@@ -9190,7 +9189,7 @@
       </c>
       <c r="E89" s="95"/>
     </row>
-    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="135">
         <v>18</v>
       </c>
@@ -9206,7 +9205,7 @@
       </c>
       <c r="E90" s="95"/>
     </row>
-    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="135">
         <v>19</v>
       </c>
@@ -9222,7 +9221,7 @@
       </c>
       <c r="E91" s="95"/>
     </row>
-    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="135">
         <v>20</v>
       </c>
@@ -9238,7 +9237,7 @@
       </c>
       <c r="E92" s="95"/>
     </row>
-    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="135">
         <v>21</v>
       </c>
@@ -9254,7 +9253,7 @@
       </c>
       <c r="E93" s="95"/>
     </row>
-    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="135">
         <v>22</v>
       </c>
@@ -9270,7 +9269,7 @@
       </c>
       <c r="E94" s="95"/>
     </row>
-    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="135">
         <v>23</v>
       </c>
@@ -9286,7 +9285,7 @@
       </c>
       <c r="E95" s="95"/>
     </row>
-    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="136">
         <v>24</v>
       </c>
@@ -9302,9 +9301,9 @@
       </c>
       <c r="E96" s="101"/>
     </row>
-    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
         <v>94</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>陡坡低山</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="45" t="s">
         <v>95</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="39" t="s">
         <v>127</v>
       </c>
@@ -9350,7 +9349,7 @@
       </c>
       <c r="F101" s="42"/>
     </row>
-    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="33">
         <v>1</v>
       </c>
@@ -9370,7 +9369,7 @@
       </c>
       <c r="F102" s="37"/>
     </row>
-    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="33">
         <v>2</v>
       </c>
@@ -9390,7 +9389,7 @@
       </c>
       <c r="F103" s="37"/>
     </row>
-    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="33">
         <v>3</v>
       </c>
@@ -9410,7 +9409,7 @@
       </c>
       <c r="F104" s="37"/>
     </row>
-    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="33">
         <v>4</v>
       </c>
@@ -9430,7 +9429,7 @@
       </c>
       <c r="F105" s="37"/>
     </row>
-    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="33">
         <v>5</v>
       </c>
@@ -9450,7 +9449,7 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="33">
         <v>6</v>
       </c>
@@ -9470,7 +9469,7 @@
       </c>
       <c r="F107" s="37"/>
     </row>
-    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="33">
         <v>7</v>
       </c>
@@ -9490,7 +9489,7 @@
       </c>
       <c r="F108" s="37"/>
     </row>
-    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="33">
         <v>8</v>
       </c>
@@ -9510,7 +9509,7 @@
       </c>
       <c r="F109" s="37"/>
     </row>
-    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="39" t="s">
         <v>128</v>
       </c>
@@ -9527,7 +9526,7 @@
       </c>
       <c r="F110" s="43"/>
     </row>
-    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="33">
         <v>1</v>
       </c>
@@ -9547,7 +9546,7 @@
       </c>
       <c r="F111" s="37"/>
     </row>
-    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="33">
         <v>2</v>
       </c>
@@ -9567,7 +9566,7 @@
       </c>
       <c r="F112" s="37"/>
     </row>
-    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="33">
         <v>3</v>
       </c>
@@ -9587,7 +9586,7 @@
       </c>
       <c r="F113" s="37"/>
     </row>
-    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="33">
         <v>4</v>
       </c>
@@ -9607,7 +9606,7 @@
       </c>
       <c r="F114" s="37"/>
     </row>
-    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="33">
         <v>5</v>
       </c>
@@ -9627,7 +9626,7 @@
       </c>
       <c r="F115" s="37"/>
     </row>
-    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="33">
         <v>6</v>
       </c>
@@ -9647,7 +9646,7 @@
       </c>
       <c r="F116" s="37"/>
     </row>
-    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="33">
         <v>7</v>
       </c>
@@ -9667,7 +9666,7 @@
       </c>
       <c r="F117" s="37"/>
     </row>
-    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="33">
         <v>8</v>
       </c>
@@ -9687,7 +9686,7 @@
       </c>
       <c r="F118" s="37"/>
     </row>
-    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="33">
         <v>9</v>
       </c>
@@ -9707,7 +9706,7 @@
       </c>
       <c r="F119" s="37"/>
     </row>
-    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="33">
         <v>10</v>
       </c>
@@ -9727,7 +9726,7 @@
       </c>
       <c r="F120" s="37"/>
     </row>
-    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="33">
         <v>11</v>
       </c>
@@ -9747,7 +9746,7 @@
       </c>
       <c r="F121" s="37"/>
     </row>
-    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="39" t="s">
         <v>129</v>
       </c>
@@ -9764,7 +9763,7 @@
       </c>
       <c r="F122" s="43"/>
     </row>
-    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="33">
         <v>1</v>
       </c>
@@ -9784,7 +9783,7 @@
       </c>
       <c r="F123" s="36"/>
     </row>
-    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="33">
         <v>2</v>
       </c>
@@ -9804,7 +9803,7 @@
       </c>
       <c r="F124" s="36"/>
     </row>
-    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="33">
         <v>3</v>
       </c>
@@ -9824,7 +9823,7 @@
       </c>
       <c r="F125" s="36"/>
     </row>
-    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="33">
         <v>4</v>
       </c>
@@ -9844,7 +9843,7 @@
       </c>
       <c r="F126" s="36"/>
     </row>
-    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="33">
         <v>5</v>
       </c>
@@ -9864,7 +9863,7 @@
       </c>
       <c r="F127" s="36"/>
     </row>
-    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="33">
         <v>6</v>
       </c>
@@ -9884,7 +9883,7 @@
       </c>
       <c r="F128" s="36"/>
     </row>
-    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="33">
         <v>7</v>
       </c>
@@ -9904,7 +9903,7 @@
       </c>
       <c r="F129" s="36"/>
     </row>
-    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="33">
         <v>8</v>
       </c>
@@ -9924,7 +9923,7 @@
       </c>
       <c r="F130" s="36"/>
     </row>
-    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="33">
         <v>9</v>
       </c>
@@ -9944,7 +9943,7 @@
       </c>
       <c r="F131" s="36"/>
     </row>
-    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="33">
         <v>10</v>
       </c>
@@ -9964,7 +9963,7 @@
       </c>
       <c r="F132" s="36"/>
     </row>
-    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="33">
         <v>11</v>
       </c>
@@ -9984,7 +9983,7 @@
       </c>
       <c r="F133" s="36"/>
     </row>
-    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="33">
         <v>12</v>
       </c>
@@ -10004,7 +10003,7 @@
       </c>
       <c r="F134" s="36"/>
     </row>
-    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="39" t="s">
         <v>130</v>
       </c>
@@ -10021,7 +10020,7 @@
       </c>
       <c r="F135" s="37"/>
     </row>
-    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="33">
         <v>1</v>
       </c>
@@ -10041,7 +10040,7 @@
       </c>
       <c r="F136" s="37"/>
     </row>
-    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="33">
         <v>2</v>
       </c>
@@ -10056,12 +10055,12 @@
         <v>4320</v>
       </c>
       <c r="E137" s="80">
-        <f t="shared" si="5"/>
+        <f>D137*$E$135</f>
         <v>64800</v>
       </c>
       <c r="F137" s="37"/>
     </row>
-    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="33">
         <v>3</v>
       </c>
@@ -10081,7 +10080,7 @@
       </c>
       <c r="F138" s="37"/>
     </row>
-    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="33">
         <v>4</v>
       </c>
@@ -10101,7 +10100,7 @@
       </c>
       <c r="F139" s="37"/>
     </row>
-    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="33">
         <v>5</v>
       </c>
@@ -10121,7 +10120,7 @@
       </c>
       <c r="F140" s="37"/>
     </row>
-    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="33">
         <v>6</v>
       </c>
@@ -10141,13 +10140,13 @@
       </c>
       <c r="F141" s="37"/>
     </row>
-    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="105" t="s">
         <v>85</v>
       </c>
@@ -10164,7 +10163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -10257,7 +10256,7 @@
       </c>
       <c r="E150" s="27"/>
     </row>
-    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="106">
         <v>6</v>
       </c>
@@ -10274,14 +10273,14 @@
       </c>
       <c r="E151" s="30"/>
     </row>
-    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="110" t="s">
         <v>85</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="114">
         <v>1</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>10419.80810276195</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="114">
         <v>2</v>
       </c>
@@ -10338,7 +10337,7 @@
         <v>30763.782499999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="114">
         <v>3</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="114">
         <v>4</v>
       </c>
@@ -10374,11 +10373,11 @@
         <v>13500</v>
       </c>
       <c r="E159" s="116">
-        <f t="shared" si="6"/>
+        <f>C159-D159</f>
         <v>67500</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="114">
         <v>5</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A161" s="119">
         <v>6</v>
       </c>
@@ -10418,14 +10417,14 @@
         <v>253183.59060276195</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="131" t="s">
         <v>277</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="132">
         <v>1</v>
       </c>
@@ -10477,14 +10476,14 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="123" t="s">
         <v>264</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="25">
         <v>1</v>
       </c>
@@ -10511,7 +10510,7 @@
       </c>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="25">
         <v>2</v>
       </c>
@@ -10524,7 +10523,7 @@
       </c>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="25">
         <v>3</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="106">
         <v>4</v>
       </c>
@@ -10555,14 +10554,14 @@
         <v>18.993855370323978</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="105" t="s">
         <v>85</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="25">
         <v>1</v>
       </c>
@@ -10589,7 +10588,7 @@
       </c>
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="25">
         <v>2</v>
       </c>
@@ -10602,7 +10601,7 @@
       </c>
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="25">
         <v>3</v>
       </c>
@@ -10615,7 +10614,7 @@
       </c>
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="25">
         <v>4</v>
       </c>
@@ -10628,7 +10627,7 @@
       </c>
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="25">
         <v>5</v>
       </c>
@@ -10641,7 +10640,7 @@
       </c>
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="25">
         <v>6</v>
       </c>
@@ -10654,7 +10653,7 @@
       </c>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="25">
         <v>7</v>
       </c>
@@ -10667,7 +10666,7 @@
       </c>
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="106">
         <v>8</v>
       </c>
@@ -10683,9 +10682,9 @@
         <v>333.2142380256293</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
         <v>286</v>
       </c>
@@ -10694,7 +10693,7 @@
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
     </row>
-    <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="123" t="s">
         <v>277</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="25">
         <v>1</v>
       </c>
@@ -10727,7 +10726,7 @@
       </c>
       <c r="E191" s="27"/>
     </row>
-    <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="25">
         <v>2</v>
       </c>
@@ -10743,7 +10742,7 @@
       </c>
       <c r="E192" s="27"/>
     </row>
-    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="25">
         <v>3</v>
       </c>
@@ -10759,7 +10758,7 @@
       </c>
       <c r="E193" s="27"/>
     </row>
-    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="25">
         <v>4</v>
       </c>
@@ -10775,7 +10774,7 @@
       </c>
       <c r="E194" s="27"/>
     </row>
-    <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="25">
         <v>5</v>
       </c>
@@ -10791,7 +10790,7 @@
       </c>
       <c r="E195" s="27"/>
     </row>
-    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="25">
         <v>6</v>
       </c>
@@ -10807,7 +10806,7 @@
       </c>
       <c r="E196" s="27"/>
     </row>
-    <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="25">
         <v>7</v>
       </c>
@@ -10823,7 +10822,7 @@
       </c>
       <c r="E197" s="27"/>
     </row>
-    <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="25">
         <v>8</v>
       </c>
@@ -10839,7 +10838,7 @@
       </c>
       <c r="E198" s="27"/>
     </row>
-    <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="25">
         <v>9</v>
       </c>
@@ -10855,7 +10854,7 @@
       </c>
       <c r="E199" s="27"/>
     </row>
-    <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A200" s="106">
         <v>10</v>
       </c>
@@ -10871,329 +10870,329 @@
       </c>
       <c r="E200" s="30"/>
     </row>
-    <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <dataConsolidate link="1"/>
@@ -11292,26 +11291,26 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="24"/>
-    <col min="3" max="3" width="13.19921875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="24" customWidth="1"/>
     <col min="5" max="5" width="9" style="24"/>
     <col min="6" max="6" width="15.5" style="24" customWidth="1"/>
     <col min="7" max="9" width="9" style="24"/>
-    <col min="10" max="10" width="11.69921875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="24" customWidth="1"/>
     <col min="11" max="13" width="9" style="24"/>
-    <col min="14" max="14" width="9.09765625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.59765625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.09765625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.69921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.59765625" style="24" customWidth="1"/>
-    <col min="22" max="22" width="11.69921875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="24" customWidth="1"/>
+    <col min="22" max="22" width="11.75" style="24" customWidth="1"/>
     <col min="23" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
@@ -11463,7 +11462,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D5" s="24" t="s">
         <v>20</v>
       </c>
@@ -11489,7 +11488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
@@ -11603,13 +11602,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>55</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>6</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>6</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>6</v>
       </c>
@@ -11902,7 +11901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>6</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>6</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>6</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>6</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>6</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>6</v>
       </c>
@@ -12429,7 +12428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>6</v>
       </c>
@@ -12505,7 +12504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>6</v>
       </c>
@@ -12581,7 +12580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>6</v>
       </c>
@@ -12657,7 +12656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>6</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>6</v>
       </c>
@@ -12809,7 +12808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>6</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>6</v>
       </c>
@@ -12961,7 +12960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>6</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>6</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>6</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>6</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>6</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>6</v>
       </c>
@@ -13417,7 +13416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>6</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>7</v>
       </c>
@@ -13568,7 +13567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>7</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="237" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="237" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="237">
         <v>7</v>
       </c>
@@ -13718,7 +13717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>7</v>
       </c>
@@ -13793,7 +13792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>7</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>7</v>
       </c>
@@ -13943,7 +13942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>7</v>
       </c>
@@ -14018,7 +14017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>7</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>7</v>
       </c>
@@ -14169,7 +14168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50" s="24">
         <v>7</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>7</v>
       </c>
@@ -14321,7 +14320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>7</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>7</v>
       </c>
@@ -14473,7 +14472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>7</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>7</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>7</v>
       </c>
@@ -14701,7 +14700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>7</v>
       </c>
@@ -14777,7 +14776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>7</v>
       </c>
@@ -14853,7 +14852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>7</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>7</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>7</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>7</v>
       </c>
@@ -15157,7 +15156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>7</v>
       </c>
@@ -15233,7 +15232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>7</v>
       </c>
@@ -15309,7 +15308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>8</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>8</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>8</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>8</v>
       </c>
@@ -15609,7 +15608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>8</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>8</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>8</v>
       </c>
@@ -15834,7 +15833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>8</v>
       </c>
@@ -15909,7 +15908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>8</v>
       </c>
@@ -15985,7 +15984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>8</v>
       </c>
@@ -16061,7 +16060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>8</v>
       </c>
@@ -16137,7 +16136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>8</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>8</v>
       </c>
@@ -16289,7 +16288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>8</v>
       </c>
@@ -16365,7 +16364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>8</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>8</v>
       </c>
@@ -16517,7 +16516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>8</v>
       </c>
@@ -16593,7 +16592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>8</v>
       </c>
@@ -16669,7 +16668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>8</v>
       </c>
@@ -16745,7 +16744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>8</v>
       </c>
@@ -16821,7 +16820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>8</v>
       </c>
@@ -16897,7 +16896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>8</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>8</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>8</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C89" s="16"/>
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
@@ -17146,7 +17145,7 @@
       <c r="T89" s="79"/>
       <c r="U89" s="79"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C90" s="16"/>
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
@@ -17167,12 +17166,12 @@
       <c r="T90" s="79"/>
       <c r="U90" s="79"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A96" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="14" t="s">
         <v>71</v>
       </c>
@@ -17219,7 +17218,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="24">
         <v>2</v>
       </c>
@@ -17274,7 +17273,7 @@
         <v>17.885000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="24">
         <v>2.2000000000000002</v>
       </c>
@@ -17329,7 +17328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="24">
         <v>2.5</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="237" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="237" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A101" s="237">
         <v>3</v>
       </c>
@@ -17439,7 +17438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="24">
         <v>3.2</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="24">
         <v>3.3</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>3.4</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>3.6</v>
       </c>
@@ -17676,19 +17675,19 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" customWidth="1"/>
-    <col min="9" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>204</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>110</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>220</v>
       </c>
@@ -17712,17 +17711,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C4" s="24">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C5" s="85">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -17752,7 +17751,7 @@
       <c r="AB12" s="84"/>
       <c r="AC12" s="84"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>210</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="85"/>
@@ -17916,7 +17915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>211</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>211</v>
       </c>
@@ -18106,7 +18105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>211</v>
       </c>
@@ -18143,7 +18142,7 @@
       <c r="AB17" s="89"/>
       <c r="AC17" s="89"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>211</v>
       </c>
@@ -18180,7 +18179,7 @@
       <c r="AB18" s="89"/>
       <c r="AC18" s="89"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>211</v>
       </c>
@@ -18217,7 +18216,7 @@
       <c r="AB19" s="89"/>
       <c r="AC19" s="89"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>211</v>
       </c>
@@ -18254,7 +18253,7 @@
       <c r="AB20" s="89"/>
       <c r="AC20" s="89"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>211</v>
       </c>
@@ -18291,7 +18290,7 @@
       <c r="AB21" s="89"/>
       <c r="AC21" s="89"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>211</v>
       </c>
@@ -18328,7 +18327,7 @@
       <c r="AB22" s="89"/>
       <c r="AC22" s="89"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>212</v>
       </c>
@@ -18371,7 +18370,7 @@
       <c r="AB23" s="89"/>
       <c r="AC23" s="89"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>212</v>
       </c>
@@ -18414,7 +18413,7 @@
       <c r="AB24" s="89"/>
       <c r="AC24" s="89"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>212</v>
       </c>
@@ -18457,7 +18456,7 @@
       <c r="AB25" s="89"/>
       <c r="AC25" s="89"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>212</v>
       </c>
@@ -18500,7 +18499,7 @@
       <c r="AB26" s="89"/>
       <c r="AC26" s="89"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>212</v>
       </c>
@@ -18543,7 +18542,7 @@
       <c r="AB27" s="89"/>
       <c r="AC27" s="89"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>212</v>
       </c>
@@ -18586,7 +18585,7 @@
       <c r="AB28" s="89"/>
       <c r="AC28" s="89"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>212</v>
       </c>
@@ -18629,7 +18628,7 @@
       <c r="AB29" s="89"/>
       <c r="AC29" s="89"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>212</v>
       </c>
@@ -18688,14 +18687,14 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="27" max="27" width="10.69921875" customWidth="1"/>
-    <col min="28" max="28" width="11.09765625" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -18715,7 +18714,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -18729,7 +18728,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -18748,7 +18747,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -18764,7 +18763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -18772,7 +18771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -18780,11 +18779,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="65"/>
       <c r="B13" s="78" t="s">
         <v>127</v>
@@ -18907,7 +18906,7 @@
       <c r="AX13" s="24"/>
       <c r="AY13" s="24"/>
     </row>
-    <row r="14" spans="1:51" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="65"/>
       <c r="B14" s="77" t="s">
         <v>97</v>
@@ -19030,7 +19029,7 @@
       <c r="AX14" s="24"/>
       <c r="AY14" s="24"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="65"/>
       <c r="B15" s="77" t="s">
         <v>141</v>
@@ -19153,7 +19152,7 @@
       <c r="AX15" s="24"/>
       <c r="AY15" s="24"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="65" t="s">
         <v>60</v>
       </c>
@@ -19294,7 +19293,7 @@
       <c r="AX16" s="24"/>
       <c r="AY16" s="24"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
         <v>61</v>
       </c>
@@ -19434,7 +19433,7 @@
       <c r="AX17" s="24"/>
       <c r="AY17" s="24"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
         <v>62</v>
       </c>
@@ -19572,7 +19571,7 @@
       <c r="AX18" s="24"/>
       <c r="AY18" s="24"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
         <v>63</v>
       </c>
@@ -19710,7 +19709,7 @@
       <c r="AX19" s="24"/>
       <c r="AY19" s="24"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
         <v>64</v>
       </c>
@@ -19848,7 +19847,7 @@
       <c r="AX20" s="24"/>
       <c r="AY20" s="24"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
         <v>65</v>
       </c>
@@ -19986,7 +19985,7 @@
       <c r="AX21" s="24"/>
       <c r="AY21" s="24"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
         <v>66</v>
       </c>
@@ -20124,7 +20123,7 @@
       <c r="AX22" s="24"/>
       <c r="AY22" s="24"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
         <v>67</v>
       </c>
@@ -20262,7 +20261,7 @@
       <c r="AX23" s="24"/>
       <c r="AY23" s="24"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -20315,7 +20314,7 @@
       <c r="AX24" s="24"/>
       <c r="AY24" s="24"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -20368,7 +20367,7 @@
       <c r="AX25" s="24"/>
       <c r="AY25" s="24"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A26" s="65"/>
       <c r="B26" s="65" t="s">
         <v>143</v>
@@ -20437,7 +20436,7 @@
       <c r="AX26" s="24"/>
       <c r="AY26" s="24"/>
     </row>
-    <row r="27" spans="1:51" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="65"/>
       <c r="B27" s="66" t="s">
         <v>111</v>
@@ -20506,7 +20505,7 @@
       <c r="AX27" s="24"/>
       <c r="AY27" s="24"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A28" s="65"/>
       <c r="B28" s="66" t="s">
         <v>145</v>
@@ -20575,7 +20574,7 @@
       <c r="AX28" s="24"/>
       <c r="AY28" s="24"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
         <v>60</v>
       </c>
@@ -20648,7 +20647,7 @@
       <c r="AX29" s="24"/>
       <c r="AY29" s="24"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
         <v>61</v>
       </c>
@@ -20722,7 +20721,7 @@
       <c r="AX30" s="24"/>
       <c r="AY30" s="24"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
         <v>62</v>
       </c>
@@ -20796,7 +20795,7 @@
       <c r="AX31" s="24"/>
       <c r="AY31" s="24"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
         <v>63</v>
       </c>
@@ -20870,7 +20869,7 @@
       <c r="AX32" s="24"/>
       <c r="AY32" s="24"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
         <v>64</v>
       </c>
@@ -20944,7 +20943,7 @@
       <c r="AX33" s="24"/>
       <c r="AY33" s="24"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
         <v>65</v>
       </c>
@@ -21018,7 +21017,7 @@
       <c r="AX34" s="24"/>
       <c r="AY34" s="24"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A35" s="65" t="s">
         <v>66</v>
       </c>
@@ -21092,7 +21091,7 @@
       <c r="AX35" s="24"/>
       <c r="AY35" s="24"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A36" s="65" t="s">
         <v>67</v>
       </c>
